--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>392791.7914840638</v>
+        <v>388195.1416277434</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6985646.213848261</v>
+        <v>6985646.213848262</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5545282.129898501</v>
+        <v>5545282.129898502</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.322202663655721</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>80.69834806689089</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>28.72409579593111</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578063</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>60.04826347520637</v>
       </c>
       <c r="T13" t="n">
         <v>237.5909258267186</v>
@@ -1590,7 +1590,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458682</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>105.1565557200992</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>239.0698066513472</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>52.06214045996118</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>91.66818371770184</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>14.97569200666011</v>
       </c>
       <c r="H17" t="n">
-        <v>235.408380998847</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>29.6626239099728</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>181.0893768351589</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
         <v>277.3402845023203</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>270.1183235966508</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>18.54772008664342</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.7932357292871</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>7.219392579947766</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.34346969091205</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.0913769251532</v>
+        <v>338.2744114805337</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H24" t="n">
-        <v>41.2817694632921</v>
+        <v>41.28176946329209</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>58.27713410334049</v>
+        <v>58.27713410334047</v>
       </c>
       <c r="T24" t="n">
-        <v>135.636360118315</v>
+        <v>135.6363601183149</v>
       </c>
       <c r="U24" t="n">
         <v>182.8417636914805</v>
@@ -2478,10 +2478,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>145.8682043690004</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2496,7 +2496,7 @@
         <v>133.4360114046202</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>68.59199721635845</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.6181441030213</v>
+        <v>27.9972528980581</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3278660122306</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>271.9779897930421</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.34346969091205</v>
+        <v>52.34346969091202</v>
       </c>
       <c r="T26" t="n">
-        <v>143.1539462678869</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U26" t="n">
         <v>255.5923844622858</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>285.9309417896219</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H27" t="n">
-        <v>41.2817694632921</v>
+        <v>41.28176946329209</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>58.27713410334049</v>
+        <v>58.27713410334047</v>
       </c>
       <c r="T27" t="n">
-        <v>135.636360118315</v>
+        <v>135.6363601183149</v>
       </c>
       <c r="U27" t="n">
         <v>182.8417636914805</v>
@@ -2721,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>110.6518663594418</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5908699634609</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>133.4360114046202</v>
       </c>
       <c r="I28" t="n">
-        <v>68.59199721635846</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.445867145127849</v>
+        <v>1.445867145127821</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>142.1956466206622</v>
+        <v>277.3278660122306</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>348.1220636189385</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>345.2562535187506</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.34346969091202</v>
       </c>
       <c r="T29" t="n">
         <v>208.9229806032259</v>
@@ -2851,13 +2851,13 @@
         <v>255.5923844622858</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H30" t="n">
-        <v>41.2817694632921</v>
+        <v>41.28176946329209</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>58.27713410334049</v>
+        <v>58.27713410334047</v>
       </c>
       <c r="T30" t="n">
-        <v>135.636360118315</v>
+        <v>135.6363601183149</v>
       </c>
       <c r="U30" t="n">
         <v>182.8417636914805</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>137.2684866677429</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H31" t="n">
-        <v>133.4360114046202</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.59199721635846</v>
+        <v>68.59199721635845</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.445867145127849</v>
+        <v>1.445867145127821</v>
       </c>
       <c r="S31" t="n">
         <v>150.9449052174855</v>
@@ -3006,10 +3006,10 @@
         <v>236.6181441030213</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3278660122306</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>166.962961422829</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>18.21284408286925</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>271.9779897930421</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.34346969091205</v>
+        <v>52.34346969091202</v>
       </c>
       <c r="T32" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5923844622858</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>275.9701538239541</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3125,7 +3125,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H33" t="n">
-        <v>41.2817694632921</v>
+        <v>41.28176946329209</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>58.27713410334049</v>
+        <v>58.27713410334047</v>
       </c>
       <c r="T33" t="n">
-        <v>135.636360118315</v>
+        <v>135.6363601183149</v>
       </c>
       <c r="U33" t="n">
         <v>182.8417636914805</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3198,7 +3198,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>30.57566016841471</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>133.4360114046202</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>49.88359244080431</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.445867145127849</v>
+        <v>1.445867145127821</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T34" t="n">
         <v>236.6181441030213</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>23.84246215377882</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>52.34346969091202</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5923844622858</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>227.091376925155</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H36" t="n">
-        <v>41.2817694632921</v>
+        <v>41.28176946329209</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>58.27713410334049</v>
+        <v>58.27713410334047</v>
       </c>
       <c r="T36" t="n">
-        <v>135.636360118315</v>
+        <v>135.6363601183149</v>
       </c>
       <c r="U36" t="n">
         <v>182.8417636914805</v>
@@ -3432,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>48.83661341556006</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5908699634609</v>
+        <v>105.1559627232144</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I37" t="n">
-        <v>68.59199721635846</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>398.0584736956206</v>
       </c>
       <c r="H38" t="n">
-        <v>156.1207604263557</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>73.32403797865645</v>
       </c>
       <c r="U38" t="n">
         <v>255.5923844622858</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H39" t="n">
-        <v>41.2817694632921</v>
+        <v>41.28176946329209</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>58.27713410334049</v>
+        <v>58.27713410334047</v>
       </c>
       <c r="T39" t="n">
-        <v>135.636360118315</v>
+        <v>135.6363601183149</v>
       </c>
       <c r="U39" t="n">
         <v>182.8417636914805</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>161.9419257292269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>163.5908699634609</v>
@@ -3681,7 +3681,7 @@
         <v>133.4360114046202</v>
       </c>
       <c r="I40" t="n">
-        <v>68.59199721635846</v>
+        <v>68.59199721635845</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.445867145127849</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>150.9449052174855</v>
@@ -3717,10 +3717,10 @@
         <v>236.6181441030213</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3278660122306</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>34.97281716333677</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>219.1130843779111</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.9779897930421</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.34346969091205</v>
+        <v>52.34346969091202</v>
       </c>
       <c r="T41" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.4573602291111</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H42" t="n">
-        <v>41.2817694632921</v>
+        <v>41.28176946329209</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>58.27713410334049</v>
+        <v>58.27713410334047</v>
       </c>
       <c r="T42" t="n">
-        <v>135.636360118315</v>
+        <v>135.6363601183149</v>
       </c>
       <c r="U42" t="n">
         <v>182.8417636914805</v>
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>67.26110766213789</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3918,7 +3918,7 @@
         <v>133.4360114046202</v>
       </c>
       <c r="I43" t="n">
-        <v>68.59199721635846</v>
+        <v>68.59199721635845</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.445867145127849</v>
+        <v>1.445867145127821</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>236.6181441030213</v>
+        <v>142.195646620664</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.0584736956206</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.34346969091205</v>
+        <v>52.34346969091202</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U44" t="n">
-        <v>244.682783878147</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>201.0403588051308</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H45" t="n">
-        <v>41.2817694632921</v>
+        <v>41.28176946329209</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>58.27713410334049</v>
+        <v>58.27713410334047</v>
       </c>
       <c r="T45" t="n">
-        <v>135.636360118315</v>
+        <v>135.6363601183149</v>
       </c>
       <c r="U45" t="n">
         <v>182.8417636914805</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>11.15950153658566</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5908699634609</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>68.59199721635845</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.445867145127849</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>236.6181441030213</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3278660122306</v>
+        <v>235.1603634149065</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1312.446456732234</v>
+        <v>469.6492702372577</v>
       </c>
       <c r="C11" t="n">
-        <v>885.5457267455345</v>
+        <v>469.6492702372577</v>
       </c>
       <c r="D11" t="n">
-        <v>462.2531059305347</v>
+        <v>469.6492702372577</v>
       </c>
       <c r="E11" t="n">
-        <v>36.27616607839228</v>
+        <v>43.67233038511523</v>
       </c>
       <c r="F11" t="n">
-        <v>36.27616607839228</v>
+        <v>43.67233038511523</v>
       </c>
       <c r="G11" t="n">
         <v>36.27616607839228</v>
@@ -5038,19 +5038,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149077</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L11" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U11" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V11" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="W11" t="n">
-        <v>1813.808303919614</v>
+        <v>881.3692690695104</v>
       </c>
       <c r="X11" t="n">
-        <v>1732.294821023764</v>
+        <v>469.6492702372577</v>
       </c>
       <c r="Y11" t="n">
-        <v>1732.294821023764</v>
+        <v>469.6492702372577</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432375</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607423</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760273</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489645</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318687</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G12" t="n">
         <v>80.62417733004328</v>
@@ -5117,55 +5117,55 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527476</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>535.835162521935</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>712.4740133525839</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>921.748711833599</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.903693665915</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1333.947360653402</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P12" t="n">
-        <v>1487.345475499754</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q12" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R12" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U12" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100078</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633002</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>568.8336593607805</v>
+        <v>951.3094892506269</v>
       </c>
       <c r="C13" t="n">
-        <v>568.8336593607805</v>
+        <v>779.3369261295429</v>
       </c>
       <c r="D13" t="n">
-        <v>539.8194211830723</v>
+        <v>616.0201532563136</v>
       </c>
       <c r="E13" t="n">
-        <v>373.6112153359259</v>
+        <v>449.8119474091671</v>
       </c>
       <c r="F13" t="n">
-        <v>201.7494411104863</v>
+        <v>277.9501731837275</v>
       </c>
       <c r="G13" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="H13" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K13" t="n">
-        <v>463.8388611422041</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L13" t="n">
-        <v>606.7836421246717</v>
+        <v>478.4129675942053</v>
       </c>
       <c r="M13" t="n">
-        <v>1055.701197344776</v>
+        <v>927.3305228143097</v>
       </c>
       <c r="N13" t="n">
-        <v>1152.699903436724</v>
+        <v>1304.073400814623</v>
       </c>
       <c r="O13" t="n">
-        <v>1238.993031259048</v>
+        <v>1390.366528636947</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.530066266137</v>
+        <v>1753.153492328496</v>
       </c>
       <c r="T13" t="n">
-        <v>1405.539232097734</v>
+        <v>1513.162658160094</v>
       </c>
       <c r="U13" t="n">
-        <v>1125.397530580239</v>
+        <v>1233.020956642598</v>
       </c>
       <c r="V13" t="n">
-        <v>843.6860631882676</v>
+        <v>951.3094892506269</v>
       </c>
       <c r="W13" t="n">
-        <v>568.8336593607805</v>
+        <v>951.3094892506269</v>
       </c>
       <c r="X13" t="n">
-        <v>568.8336593607805</v>
+        <v>951.3094892506269</v>
       </c>
       <c r="Y13" t="n">
-        <v>568.8336593607805</v>
+        <v>951.3094892506269</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149078</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5305,22 +5305,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1749.253343642254</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T14" t="n">
-        <v>1749.253343642254</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U14" t="n">
-        <v>1643.034600490638</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V14" t="n">
-        <v>1285.545185616888</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="W14" t="n">
-        <v>889.1538359172346</v>
+        <v>1294.491105962344</v>
       </c>
       <c r="X14" t="n">
-        <v>889.1538359172346</v>
+        <v>1294.491105962344</v>
       </c>
       <c r="Y14" t="n">
         <v>889.1538359172346</v>
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C15" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E15" t="n">
         <v>267.3889916489643</v>
@@ -5360,13 +5360,13 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>559.2924683663468</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>735.9313191969958</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M15" t="n">
-        <v>945.2060176780109</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N15" t="n">
         <v>1162.360999510327</v>
@@ -5381,28 +5381,28 @@
         <v>1674.905125453736</v>
       </c>
       <c r="R15" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U15" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>598.1717991236374</v>
+        <v>580.9868894240557</v>
       </c>
       <c r="C16" t="n">
-        <v>426.1992360025533</v>
+        <v>580.9868894240557</v>
       </c>
       <c r="D16" t="n">
-        <v>426.1992360025533</v>
+        <v>580.9868894240557</v>
       </c>
       <c r="E16" t="n">
-        <v>426.1992360025533</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="F16" t="n">
-        <v>254.3374617771138</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G16" t="n">
-        <v>88.86418674501974</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H16" t="n">
-        <v>88.86418674501974</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I16" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J16" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>138.6345353799612</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>356.3700675499418</v>
+        <v>912.7564163623084</v>
       </c>
       <c r="M16" t="n">
-        <v>805.2876227700463</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N16" t="n">
-        <v>1254.205177990151</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O16" t="n">
         <v>1703.122733210255</v>
@@ -5463,25 +5463,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T16" t="n">
-        <v>1813.808303919614</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U16" t="n">
-        <v>1813.808303919614</v>
+        <v>1324.745958115996</v>
       </c>
       <c r="V16" t="n">
-        <v>1532.096836527643</v>
+        <v>1324.745958115996</v>
       </c>
       <c r="W16" t="n">
-        <v>1257.244432700156</v>
+        <v>1049.893554288509</v>
       </c>
       <c r="X16" t="n">
-        <v>1014.680536145961</v>
+        <v>807.3296577343136</v>
       </c>
       <c r="Y16" t="n">
-        <v>788.3377678357029</v>
+        <v>580.9868894240557</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1124.255760313271</v>
+        <v>1329.404979350723</v>
       </c>
       <c r="C17" t="n">
-        <v>697.3550303265708</v>
+        <v>902.5042493640235</v>
       </c>
       <c r="D17" t="n">
-        <v>274.0624095115711</v>
+        <v>902.5042493640235</v>
       </c>
       <c r="E17" t="n">
-        <v>274.0624095115711</v>
+        <v>476.5273095118811</v>
       </c>
       <c r="F17" t="n">
-        <v>274.0624095115711</v>
+        <v>51.40312770128128</v>
       </c>
       <c r="G17" t="n">
-        <v>274.0624095115711</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H17" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872672</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J17" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250304</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303109</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103486</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N17" t="n">
-        <v>1131.245262923653</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O17" t="n">
-        <v>1382.739131455148</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P17" t="n">
         <v>1591.77691709091</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1749.253343642254</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T17" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U17" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V17" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="W17" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="X17" t="n">
-        <v>1124.255760313271</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="Y17" t="n">
-        <v>1124.255760313271</v>
+        <v>1749.253343642253</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432376</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C18" t="n">
-        <v>475.9308838607424</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760274</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489646</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318688</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004349</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H18" t="n">
         <v>36.27616607839228</v>
@@ -5597,49 +5597,49 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>628.9641045014115</v>
+        <v>628.9641045014104</v>
       </c>
       <c r="L18" t="n">
-        <v>805.6029553320604</v>
+        <v>805.6029553320593</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.877653813075</v>
+        <v>1014.877653813074</v>
       </c>
       <c r="N18" t="n">
-        <v>1232.032635645392</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O18" t="n">
-        <v>1427.076302632878</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P18" t="n">
-        <v>1580.474417479231</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q18" t="n">
-        <v>1674.905125453737</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U18" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.056685410008</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967633003</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>539.8194211830723</v>
+        <v>66.23841245210218</v>
       </c>
       <c r="C19" t="n">
-        <v>539.8194211830723</v>
+        <v>66.23841245210218</v>
       </c>
       <c r="D19" t="n">
-        <v>539.8194211830723</v>
+        <v>66.23841245210218</v>
       </c>
       <c r="E19" t="n">
-        <v>373.6112153359259</v>
+        <v>66.23841245210218</v>
       </c>
       <c r="F19" t="n">
-        <v>201.7494411104863</v>
+        <v>66.23841245210218</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839228</v>
+        <v>66.23841245210218</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839228</v>
+        <v>66.23841245210218</v>
       </c>
       <c r="I19" t="n">
         <v>36.27616607839228</v>
@@ -5676,16 +5676,16 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>216.556252028182</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>309.0520751284041</v>
+        <v>912.7564163623084</v>
       </c>
       <c r="M19" t="n">
-        <v>757.9696303485086</v>
+        <v>1016.538552789927</v>
       </c>
       <c r="N19" t="n">
-        <v>1102.831680612252</v>
+        <v>1465.456108010032</v>
       </c>
       <c r="O19" t="n">
         <v>1551.749235832356</v>
@@ -5703,22 +5703,22 @@
         <v>1802.007452933977</v>
       </c>
       <c r="T19" t="n">
-        <v>1619.088890474221</v>
+        <v>1562.016618765574</v>
       </c>
       <c r="U19" t="n">
-        <v>1338.947188956725</v>
+        <v>1281.874917248079</v>
       </c>
       <c r="V19" t="n">
-        <v>1057.235721564754</v>
+        <v>1000.163449856108</v>
       </c>
       <c r="W19" t="n">
-        <v>782.3833177372672</v>
+        <v>725.3110460286207</v>
       </c>
       <c r="X19" t="n">
-        <v>539.8194211830723</v>
+        <v>482.7471494744258</v>
       </c>
       <c r="Y19" t="n">
-        <v>539.8194211830723</v>
+        <v>256.4043811641678</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>734.2471394007606</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="C20" t="n">
-        <v>734.2471394007606</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D20" t="n">
-        <v>734.2471394007606</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E20" t="n">
-        <v>734.2471394007606</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1229575901608</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G20" t="n">
-        <v>309.1229575901608</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872672</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J20" t="n">
         <v>184.296341114908</v>
@@ -5782,22 +5782,22 @@
         <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U20" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V20" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W20" t="n">
-        <v>1139.58440944587</v>
+        <v>1730.518272847664</v>
       </c>
       <c r="X20" t="n">
-        <v>1139.58440944587</v>
+        <v>1730.518272847664</v>
       </c>
       <c r="Y20" t="n">
-        <v>734.2471394007606</v>
+        <v>1730.518272847664</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>734.4196047863161</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>911.058455616965</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>1120.33315409798</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N21" t="n">
-        <v>1337.488135930296</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1532.531802917783</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P21" t="n">
-        <v>1685.929917764136</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R21" t="n">
         <v>1813.808303919613</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>381.6384618882993</v>
+        <v>318.0300976061421</v>
       </c>
       <c r="C22" t="n">
-        <v>381.6384618882993</v>
+        <v>318.0300976061421</v>
       </c>
       <c r="D22" t="n">
-        <v>381.6384618882993</v>
+        <v>318.0300976061421</v>
       </c>
       <c r="E22" t="n">
-        <v>215.4302560411528</v>
+        <v>318.0300976061421</v>
       </c>
       <c r="F22" t="n">
-        <v>43.56848181571326</v>
+        <v>146.1683233807025</v>
       </c>
       <c r="G22" t="n">
-        <v>43.56848181571326</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H22" t="n">
-        <v>43.56848181571326</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I22" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>385.9171444939832</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>834.8346997140877</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
-        <v>932.8880472917069</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N22" t="n">
-        <v>1029.886753383655</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O22" t="n">
-        <v>1390.366528636948</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
         <v>1773.863841351391</v>
@@ -5934,28 +5934,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1405.539232097734</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U22" t="n">
-        <v>1125.397530580239</v>
+        <v>1533.666602402119</v>
       </c>
       <c r="V22" t="n">
-        <v>1125.397530580239</v>
+        <v>1251.955135010148</v>
       </c>
       <c r="W22" t="n">
-        <v>850.5451267527521</v>
+        <v>977.1027311826606</v>
       </c>
       <c r="X22" t="n">
-        <v>607.9812301985572</v>
+        <v>734.5388346284657</v>
       </c>
       <c r="Y22" t="n">
-        <v>381.6384618882993</v>
+        <v>508.1960663182077</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1750.343457313019</v>
+        <v>475.9497148352771</v>
       </c>
       <c r="C23" t="n">
-        <v>1323.442727326319</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="D23" t="n">
-        <v>900.1501065113193</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="E23" t="n">
-        <v>474.173166659177</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="F23" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="G23" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="H23" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="I23" t="n">
-        <v>100.2336449326256</v>
+        <v>100.2336449326258</v>
       </c>
       <c r="J23" t="n">
-        <v>259.0884825884573</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K23" t="n">
-        <v>505.4157145809424</v>
+        <v>505.415714580943</v>
       </c>
       <c r="L23" t="n">
-        <v>817.0029639133624</v>
+        <v>817.0029639133631</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.850098815876</v>
+        <v>1168.850098815878</v>
       </c>
       <c r="N23" t="n">
-        <v>1527.140232067528</v>
+        <v>1527.14023206753</v>
       </c>
       <c r="O23" t="n">
-        <v>1863.296465032332</v>
+        <v>1863.296465032333</v>
       </c>
       <c r="P23" t="n">
-        <v>2144.591619978895</v>
+        <v>2144.591619978897</v>
       </c>
       <c r="Q23" t="n">
-        <v>2348.004495197636</v>
+        <v>2348.004495197637</v>
       </c>
       <c r="R23" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428858</v>
       </c>
       <c r="S23" t="n">
-        <v>2399.577050821875</v>
+        <v>2452.449242428858</v>
       </c>
       <c r="T23" t="n">
-        <v>2399.577050821875</v>
+        <v>2241.415928688226</v>
       </c>
       <c r="U23" t="n">
-        <v>2399.577050821875</v>
+        <v>1983.241802968745</v>
       </c>
       <c r="V23" t="n">
-        <v>2399.577050821875</v>
+        <v>1625.752388094995</v>
       </c>
       <c r="W23" t="n">
-        <v>2399.577050821875</v>
+        <v>1229.361038395342</v>
       </c>
       <c r="X23" t="n">
-        <v>2399.577050821875</v>
+        <v>817.641039563089</v>
       </c>
       <c r="Y23" t="n">
-        <v>2170.191821604549</v>
+        <v>475.9497148352771</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1238.296615522308</v>
+        <v>603.2860421943509</v>
       </c>
       <c r="C24" t="n">
-        <v>1120.790712039812</v>
+        <v>485.7801387118557</v>
       </c>
       <c r="D24" t="n">
-        <v>1016.950753555097</v>
+        <v>381.9401802271407</v>
       </c>
       <c r="E24" t="n">
-        <v>912.2488198280347</v>
+        <v>277.2382465000779</v>
       </c>
       <c r="F24" t="n">
-        <v>818.6029895109389</v>
+        <v>183.592416182982</v>
       </c>
       <c r="G24" t="n">
-        <v>725.7583152101624</v>
+        <v>90.74774188220555</v>
       </c>
       <c r="H24" t="n">
-        <v>684.0595581765341</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="I24" t="n">
-        <v>732.3067979262613</v>
+        <v>97.29622459830435</v>
       </c>
       <c r="J24" t="n">
-        <v>823.8617508389784</v>
+        <v>188.8511775110216</v>
       </c>
       <c r="K24" t="n">
-        <v>993.0439070429588</v>
+        <v>358.0333337150022</v>
       </c>
       <c r="L24" t="n">
-        <v>1228.057607371769</v>
+        <v>593.0470340438128</v>
       </c>
       <c r="M24" t="n">
-        <v>1505.453001853366</v>
+        <v>870.4424285254096</v>
       </c>
       <c r="N24" t="n">
-        <v>1792.531631809942</v>
+        <v>1157.521058481986</v>
       </c>
       <c r="O24" t="n">
-        <v>2051.541776137632</v>
+        <v>1416.531202809676</v>
       </c>
       <c r="P24" t="n">
-        <v>2256.278628433757</v>
+        <v>1621.268055105801</v>
       </c>
       <c r="Q24" t="n">
-        <v>2385.027922809525</v>
+        <v>1750.017349481569</v>
       </c>
       <c r="R24" t="n">
-        <v>2452.449242428857</v>
+        <v>1817.4386691009</v>
       </c>
       <c r="S24" t="n">
-        <v>2393.58345040528</v>
+        <v>1758.572877077324</v>
       </c>
       <c r="T24" t="n">
-        <v>2256.577026043346</v>
+        <v>1621.566452715389</v>
       </c>
       <c r="U24" t="n">
-        <v>2071.888375849931</v>
+        <v>1436.877802521975</v>
       </c>
       <c r="V24" t="n">
-        <v>1866.915236989198</v>
+        <v>1231.904663661241</v>
       </c>
       <c r="W24" t="n">
-        <v>1670.393859822415</v>
+        <v>1035.383286494458</v>
       </c>
       <c r="X24" t="n">
-        <v>1506.916513589078</v>
+        <v>871.9059402611213</v>
       </c>
       <c r="Y24" t="n">
-        <v>1367.22362494237</v>
+        <v>732.2130516144136</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>997.8045112661921</v>
+        <v>928.4035266123882</v>
       </c>
       <c r="C25" t="n">
-        <v>850.4628906914442</v>
+        <v>756.4309634913042</v>
       </c>
       <c r="D25" t="n">
-        <v>687.1461178182149</v>
+        <v>756.4309634913042</v>
       </c>
       <c r="E25" t="n">
-        <v>520.9379119710684</v>
+        <v>590.2227576441577</v>
       </c>
       <c r="F25" t="n">
-        <v>349.0761377456288</v>
+        <v>418.3609834187181</v>
       </c>
       <c r="G25" t="n">
-        <v>183.8328347522339</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="H25" t="n">
-        <v>49.04898484857714</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="I25" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="J25" t="n">
-        <v>176.7803915298658</v>
+        <v>98.85867488164499</v>
       </c>
       <c r="K25" t="n">
-        <v>271.4514094262494</v>
+        <v>193.5296927780287</v>
       </c>
       <c r="L25" t="n">
-        <v>397.4574103695611</v>
+        <v>695.9245873125054</v>
       </c>
       <c r="M25" t="n">
-        <v>944.378022471907</v>
+        <v>1242.845199414851</v>
       </c>
       <c r="N25" t="n">
-        <v>1473.901324613068</v>
+        <v>1772.368501556013</v>
       </c>
       <c r="O25" t="n">
-        <v>1969.755419584649</v>
+        <v>2268.222596527594</v>
       </c>
       <c r="P25" t="n">
-        <v>2242.257474966977</v>
+        <v>2393.630972344878</v>
       </c>
       <c r="Q25" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428858</v>
       </c>
       <c r="R25" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428858</v>
       </c>
       <c r="S25" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428858</v>
       </c>
       <c r="T25" t="n">
-        <v>2213.441016062169</v>
+        <v>2424.169188996476</v>
       </c>
       <c r="U25" t="n">
-        <v>2213.441016062169</v>
+        <v>2144.040031408364</v>
       </c>
       <c r="V25" t="n">
-        <v>1931.729548670198</v>
+        <v>1862.328564016394</v>
       </c>
       <c r="W25" t="n">
-        <v>1656.877144842711</v>
+        <v>1587.476160188907</v>
       </c>
       <c r="X25" t="n">
-        <v>1414.313248288516</v>
+        <v>1344.912263634712</v>
       </c>
       <c r="Y25" t="n">
-        <v>1187.970479978258</v>
+        <v>1118.569495324454</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1576.954615085726</v>
+        <v>475.9497148352771</v>
       </c>
       <c r="C26" t="n">
-        <v>1576.954615085726</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="D26" t="n">
-        <v>1576.954615085726</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="E26" t="n">
-        <v>1150.977675233584</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="F26" t="n">
-        <v>725.853493422984</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="G26" t="n">
-        <v>323.7742270637712</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="H26" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="I26" t="n">
-        <v>100.2336449326262</v>
+        <v>100.233644932626</v>
       </c>
       <c r="J26" t="n">
-        <v>259.088482588458</v>
+        <v>259.0884825884576</v>
       </c>
       <c r="K26" t="n">
-        <v>505.4157145809431</v>
+        <v>505.4157145809428</v>
       </c>
       <c r="L26" t="n">
-        <v>817.002963913363</v>
+        <v>817.0029639133629</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.850098815877</v>
+        <v>1168.850098815878</v>
       </c>
       <c r="N26" t="n">
-        <v>1527.140232067529</v>
+        <v>1527.14023206753</v>
       </c>
       <c r="O26" t="n">
-        <v>1863.296465032332</v>
+        <v>1863.296465032333</v>
       </c>
       <c r="P26" t="n">
-        <v>2144.591619978896</v>
+        <v>2144.591619978897</v>
       </c>
       <c r="Q26" t="n">
-        <v>2348.004495197636</v>
+        <v>2348.004495197637</v>
       </c>
       <c r="R26" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428858</v>
       </c>
       <c r="S26" t="n">
-        <v>2399.577050821875</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="T26" t="n">
-        <v>2254.977105096737</v>
+        <v>2188.543737081244</v>
       </c>
       <c r="U26" t="n">
-        <v>1996.802979377256</v>
+        <v>1930.369611361764</v>
       </c>
       <c r="V26" t="n">
-        <v>1996.802979377256</v>
+        <v>1572.880196488013</v>
       </c>
       <c r="W26" t="n">
-        <v>1996.802979377256</v>
+        <v>1176.48884678836</v>
       </c>
       <c r="X26" t="n">
-        <v>1996.802979377256</v>
+        <v>764.7688479561073</v>
       </c>
       <c r="Y26" t="n">
-        <v>1996.802979377256</v>
+        <v>475.9497148352771</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>183.592416182982</v>
       </c>
       <c r="G27" t="n">
-        <v>90.74774188220553</v>
+        <v>90.74774188220555</v>
       </c>
       <c r="H27" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="I27" t="n">
-        <v>97.29622459830431</v>
+        <v>73.83891875389251</v>
       </c>
       <c r="J27" t="n">
-        <v>188.8511775110215</v>
+        <v>165.3938716666098</v>
       </c>
       <c r="K27" t="n">
-        <v>358.033333715002</v>
+        <v>334.5760278705903</v>
       </c>
       <c r="L27" t="n">
-        <v>593.0470340438125</v>
+        <v>569.589728199401</v>
       </c>
       <c r="M27" t="n">
-        <v>870.442428525409</v>
+        <v>846.9851226809977</v>
       </c>
       <c r="N27" t="n">
-        <v>1157.521058481985</v>
+        <v>1134.063752637574</v>
       </c>
       <c r="O27" t="n">
-        <v>1416.531202809675</v>
+        <v>1393.073896965264</v>
       </c>
       <c r="P27" t="n">
-        <v>1621.268055105799</v>
+        <v>1597.810749261389</v>
       </c>
       <c r="Q27" t="n">
-        <v>1750.017349481568</v>
+        <v>1726.560043637157</v>
       </c>
       <c r="R27" t="n">
         <v>1817.4386691009</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.720299485617</v>
+        <v>802.753506951221</v>
       </c>
       <c r="C28" t="n">
-        <v>919.7477363645335</v>
+        <v>630.7809438301369</v>
       </c>
       <c r="D28" t="n">
-        <v>756.4309634913042</v>
+        <v>467.4641709569077</v>
       </c>
       <c r="E28" t="n">
-        <v>590.2227576441577</v>
+        <v>355.6946089776735</v>
       </c>
       <c r="F28" t="n">
-        <v>418.3609834187181</v>
+        <v>183.8328347522339</v>
       </c>
       <c r="G28" t="n">
-        <v>253.1176804253233</v>
+        <v>183.8328347522339</v>
       </c>
       <c r="H28" t="n">
-        <v>118.3338305216665</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="I28" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="J28" t="n">
-        <v>176.7803915298658</v>
+        <v>98.85867488164499</v>
       </c>
       <c r="K28" t="n">
-        <v>518.7340185402714</v>
+        <v>440.8123018920508</v>
       </c>
       <c r="L28" t="n">
-        <v>723.3312822832312</v>
+        <v>566.8183028353625</v>
       </c>
       <c r="M28" t="n">
-        <v>1270.251894385577</v>
+        <v>1113.738914937708</v>
       </c>
       <c r="N28" t="n">
-        <v>1799.775196526738</v>
+        <v>1643.26221707887</v>
       </c>
       <c r="O28" t="n">
-        <v>2295.629291498319</v>
+        <v>2139.116312050451</v>
       </c>
       <c r="P28" t="n">
-        <v>2393.630972344877</v>
+        <v>2393.630972344878</v>
       </c>
       <c r="Q28" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428858</v>
       </c>
       <c r="R28" t="n">
-        <v>2450.988770565091</v>
+        <v>2450.988770565093</v>
       </c>
       <c r="S28" t="n">
-        <v>2450.988770565091</v>
+        <v>2298.519169335309</v>
       </c>
       <c r="T28" t="n">
-        <v>2450.988770565091</v>
+        <v>2298.519169335309</v>
       </c>
       <c r="U28" t="n">
-        <v>2307.356804281594</v>
+        <v>2018.390011747198</v>
       </c>
       <c r="V28" t="n">
-        <v>2025.645336889623</v>
+        <v>1736.678544355226</v>
       </c>
       <c r="W28" t="n">
-        <v>1750.792933062136</v>
+        <v>1461.826140527739</v>
       </c>
       <c r="X28" t="n">
-        <v>1508.229036507941</v>
+        <v>1219.262243973545</v>
       </c>
       <c r="Y28" t="n">
-        <v>1281.886268197683</v>
+        <v>992.9194756632867</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>397.7926752715575</v>
+        <v>1578.731163261826</v>
       </c>
       <c r="C29" t="n">
-        <v>397.7926752715575</v>
+        <v>1151.830433275126</v>
       </c>
       <c r="D29" t="n">
-        <v>397.7926752715575</v>
+        <v>1151.830433275126</v>
       </c>
       <c r="E29" t="n">
-        <v>397.7926752715575</v>
+        <v>725.853493422984</v>
       </c>
       <c r="F29" t="n">
-        <v>49.04898484857714</v>
+        <v>725.853493422984</v>
       </c>
       <c r="G29" t="n">
-        <v>49.04898484857714</v>
+        <v>323.7742270637712</v>
       </c>
       <c r="H29" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="I29" t="n">
-        <v>100.2336449326258</v>
+        <v>100.2336449326262</v>
       </c>
       <c r="J29" t="n">
-        <v>259.0884825884577</v>
+        <v>259.0884825884582</v>
       </c>
       <c r="K29" t="n">
-        <v>505.4157145809429</v>
+        <v>505.4157145809434</v>
       </c>
       <c r="L29" t="n">
-        <v>817.0029639133629</v>
+        <v>817.0029639133636</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.850098815877</v>
+        <v>1168.850098815878</v>
       </c>
       <c r="N29" t="n">
-        <v>1527.140232067529</v>
+        <v>1527.14023206753</v>
       </c>
       <c r="O29" t="n">
-        <v>1863.296465032332</v>
+        <v>1863.296465032333</v>
       </c>
       <c r="P29" t="n">
-        <v>2144.591619978895</v>
+        <v>2144.591619978897</v>
       </c>
       <c r="Q29" t="n">
-        <v>2348.004495197636</v>
+        <v>2348.004495197637</v>
       </c>
       <c r="R29" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="S29" t="n">
-        <v>2452.449242428857</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="T29" t="n">
-        <v>2241.415928688225</v>
+        <v>2188.543737081245</v>
       </c>
       <c r="U29" t="n">
-        <v>1983.241802968744</v>
+        <v>1930.369611361764</v>
       </c>
       <c r="V29" t="n">
-        <v>1625.752388094993</v>
+        <v>1930.369611361764</v>
       </c>
       <c r="W29" t="n">
-        <v>1229.36103839534</v>
+        <v>1930.369611361764</v>
       </c>
       <c r="X29" t="n">
-        <v>817.6410395630876</v>
+        <v>1930.369611361764</v>
       </c>
       <c r="Y29" t="n">
-        <v>817.6410395630876</v>
+        <v>1930.369611361764</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>183.592416182982</v>
       </c>
       <c r="G30" t="n">
-        <v>90.74774188220553</v>
+        <v>90.74774188220556</v>
       </c>
       <c r="H30" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="I30" t="n">
-        <v>97.29622459830431</v>
+        <v>97.29622459830438</v>
       </c>
       <c r="J30" t="n">
-        <v>188.8511775110215</v>
+        <v>188.8511775110216</v>
       </c>
       <c r="K30" t="n">
-        <v>358.033333715002</v>
+        <v>375.3146335818842</v>
       </c>
       <c r="L30" t="n">
-        <v>593.0470340438125</v>
+        <v>610.3283339106948</v>
       </c>
       <c r="M30" t="n">
-        <v>870.442428525409</v>
+        <v>887.7237283922916</v>
       </c>
       <c r="N30" t="n">
-        <v>1157.521058481985</v>
+        <v>1174.802358348868</v>
       </c>
       <c r="O30" t="n">
-        <v>1416.531202809675</v>
+        <v>1433.812502676558</v>
       </c>
       <c r="P30" t="n">
-        <v>1621.268055105799</v>
+        <v>1638.549354972683</v>
       </c>
       <c r="Q30" t="n">
-        <v>1750.017349481568</v>
+        <v>1767.298649348451</v>
       </c>
       <c r="R30" t="n">
         <v>1817.4386691009</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.7452805845314</v>
+        <v>956.9364495819608</v>
       </c>
       <c r="C31" t="n">
-        <v>391.7727174634474</v>
+        <v>784.9638864608768</v>
       </c>
       <c r="D31" t="n">
-        <v>253.1176804253233</v>
+        <v>621.6471135876475</v>
       </c>
       <c r="E31" t="n">
-        <v>253.1176804253233</v>
+        <v>455.438907740501</v>
       </c>
       <c r="F31" t="n">
-        <v>253.1176804253233</v>
+        <v>283.5771335150614</v>
       </c>
       <c r="G31" t="n">
-        <v>253.1176804253233</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="H31" t="n">
         <v>118.3338305216665</v>
       </c>
       <c r="I31" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="J31" t="n">
-        <v>98.85867488164493</v>
+        <v>98.85867488164502</v>
       </c>
       <c r="K31" t="n">
-        <v>193.5296927780286</v>
+        <v>440.8123018920508</v>
       </c>
       <c r="L31" t="n">
-        <v>695.9245873125053</v>
+        <v>943.2071964265275</v>
       </c>
       <c r="M31" t="n">
-        <v>1242.845199414851</v>
+        <v>1076.592328066052</v>
       </c>
       <c r="N31" t="n">
-        <v>1772.368501556013</v>
+        <v>1606.115630207213</v>
       </c>
       <c r="O31" t="n">
-        <v>2268.222596527594</v>
+        <v>2101.969725178794</v>
       </c>
       <c r="P31" t="n">
-        <v>2393.630972344877</v>
+        <v>2393.630972344879</v>
       </c>
       <c r="Q31" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="R31" t="n">
-        <v>2450.988770565091</v>
+        <v>2450.988770565093</v>
       </c>
       <c r="S31" t="n">
-        <v>2298.519169335308</v>
+        <v>2298.51916933531</v>
       </c>
       <c r="T31" t="n">
-        <v>2059.51094296862</v>
+        <v>2059.510942968622</v>
       </c>
       <c r="U31" t="n">
-        <v>1779.381785380508</v>
+        <v>2059.510942968622</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.670317988537</v>
+        <v>1890.861486985966</v>
       </c>
       <c r="W31" t="n">
-        <v>1222.81791416105</v>
+        <v>1616.009083158479</v>
       </c>
       <c r="X31" t="n">
-        <v>980.254017606855</v>
+        <v>1373.445186604284</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.911249296597</v>
+        <v>1147.102418294026</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1167.542926442902</v>
+        <v>899.2423356502768</v>
       </c>
       <c r="C32" t="n">
-        <v>1167.542926442902</v>
+        <v>472.3416056635769</v>
       </c>
       <c r="D32" t="n">
-        <v>744.2503056279024</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="E32" t="n">
-        <v>725.853493422984</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="F32" t="n">
-        <v>725.853493422984</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="G32" t="n">
-        <v>323.7742270637712</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="H32" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="I32" t="n">
-        <v>100.2336449326256</v>
+        <v>100.233644932626</v>
       </c>
       <c r="J32" t="n">
-        <v>259.0884825884573</v>
+        <v>259.088482588458</v>
       </c>
       <c r="K32" t="n">
-        <v>505.4157145809423</v>
+        <v>505.4157145809431</v>
       </c>
       <c r="L32" t="n">
-        <v>817.0029639133622</v>
+        <v>817.0029639133631</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.850098815877</v>
+        <v>1168.850098815878</v>
       </c>
       <c r="N32" t="n">
-        <v>1527.140232067528</v>
+        <v>1527.14023206753</v>
       </c>
       <c r="O32" t="n">
-        <v>1863.296465032331</v>
+        <v>1863.296465032333</v>
       </c>
       <c r="P32" t="n">
-        <v>2144.591619978895</v>
+        <v>2144.591619978897</v>
       </c>
       <c r="Q32" t="n">
-        <v>2348.004495197636</v>
+        <v>2348.004495197637</v>
       </c>
       <c r="R32" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="S32" t="n">
-        <v>2399.577050821875</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="T32" t="n">
-        <v>2188.543737081243</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="U32" t="n">
-        <v>1930.369611361762</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="V32" t="n">
-        <v>1572.880196488012</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="W32" t="n">
-        <v>1572.880196488012</v>
+        <v>2003.185701122224</v>
       </c>
       <c r="X32" t="n">
-        <v>1572.880196488012</v>
+        <v>1724.427969986917</v>
       </c>
       <c r="Y32" t="n">
-        <v>1167.542926442902</v>
+        <v>1319.090699941807</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>183.592416182982</v>
       </c>
       <c r="G33" t="n">
-        <v>90.74774188220553</v>
+        <v>90.74774188220556</v>
       </c>
       <c r="H33" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="I33" t="n">
-        <v>97.29622459830431</v>
+        <v>73.83891875389253</v>
       </c>
       <c r="J33" t="n">
-        <v>188.8511775110215</v>
+        <v>206.1324773779036</v>
       </c>
       <c r="K33" t="n">
-        <v>358.033333715002</v>
+        <v>375.3146335818842</v>
       </c>
       <c r="L33" t="n">
-        <v>593.0470340438125</v>
+        <v>610.3283339106948</v>
       </c>
       <c r="M33" t="n">
-        <v>870.442428525409</v>
+        <v>887.7237283922916</v>
       </c>
       <c r="N33" t="n">
-        <v>1157.521058481985</v>
+        <v>1174.802358348868</v>
       </c>
       <c r="O33" t="n">
-        <v>1416.531202809675</v>
+        <v>1433.812502676558</v>
       </c>
       <c r="P33" t="n">
-        <v>1621.268055105799</v>
+        <v>1638.549354972683</v>
       </c>
       <c r="Q33" t="n">
-        <v>1750.017349481568</v>
+        <v>1767.298649348451</v>
       </c>
       <c r="R33" t="n">
         <v>1817.4386691009</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>716.2148818143146</v>
+        <v>563.7452805845332</v>
       </c>
       <c r="C34" t="n">
-        <v>544.2423186932306</v>
+        <v>563.7452805845332</v>
       </c>
       <c r="D34" t="n">
-        <v>380.9255458200013</v>
+        <v>400.428507711304</v>
       </c>
       <c r="E34" t="n">
-        <v>214.7173399728548</v>
+        <v>234.2203018641575</v>
       </c>
       <c r="F34" t="n">
-        <v>183.8328347522339</v>
+        <v>234.2203018641575</v>
       </c>
       <c r="G34" t="n">
-        <v>183.8328347522339</v>
+        <v>234.2203018641575</v>
       </c>
       <c r="H34" t="n">
-        <v>49.04898484857714</v>
+        <v>99.43645196050073</v>
       </c>
       <c r="I34" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="J34" t="n">
-        <v>98.85867488164493</v>
+        <v>176.7803915298659</v>
       </c>
       <c r="K34" t="n">
-        <v>440.8123018920506</v>
+        <v>518.7340185402716</v>
       </c>
       <c r="L34" t="n">
-        <v>943.2071964265274</v>
+        <v>949.6601092085367</v>
       </c>
       <c r="M34" t="n">
-        <v>1490.127808528873</v>
+        <v>1496.580721310883</v>
       </c>
       <c r="N34" t="n">
-        <v>2019.651110670035</v>
+        <v>2026.104023452044</v>
       </c>
       <c r="O34" t="n">
-        <v>2295.629291498319</v>
+        <v>2144.255794120422</v>
       </c>
       <c r="P34" t="n">
-        <v>2393.630972344877</v>
+        <v>2242.257474966979</v>
       </c>
       <c r="Q34" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="R34" t="n">
-        <v>2450.988770565091</v>
+        <v>2450.988770565093</v>
       </c>
       <c r="S34" t="n">
-        <v>2450.988770565091</v>
+        <v>2298.51916933531</v>
       </c>
       <c r="T34" t="n">
-        <v>2211.980544198403</v>
+        <v>2059.510942968622</v>
       </c>
       <c r="U34" t="n">
-        <v>1931.851386610291</v>
+        <v>1779.38178538051</v>
       </c>
       <c r="V34" t="n">
-        <v>1650.13991921832</v>
+        <v>1497.670317988539</v>
       </c>
       <c r="W34" t="n">
-        <v>1375.287515390833</v>
+        <v>1222.817914161052</v>
       </c>
       <c r="X34" t="n">
-        <v>1132.723618836638</v>
+        <v>980.2540176068568</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.3808505263803</v>
+        <v>753.9112492965988</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1774.426752417846</v>
+        <v>1750.343457313019</v>
       </c>
       <c r="C35" t="n">
-        <v>1347.526022431146</v>
+        <v>1323.442727326319</v>
       </c>
       <c r="D35" t="n">
-        <v>924.2334016161465</v>
+        <v>900.1501065113193</v>
       </c>
       <c r="E35" t="n">
-        <v>498.256461764004</v>
+        <v>474.173166659177</v>
       </c>
       <c r="F35" t="n">
-        <v>73.13227995340424</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="G35" t="n">
-        <v>73.13227995340424</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="H35" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="I35" t="n">
         <v>100.2336449326258</v>
@@ -6940,49 +6940,49 @@
         <v>259.0884825884577</v>
       </c>
       <c r="K35" t="n">
-        <v>505.4157145809426</v>
+        <v>505.415714580943</v>
       </c>
       <c r="L35" t="n">
-        <v>817.0029639133625</v>
+        <v>817.0029639133631</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.850098815877</v>
+        <v>1168.850098815878</v>
       </c>
       <c r="N35" t="n">
-        <v>1527.140232067529</v>
+        <v>1527.14023206753</v>
       </c>
       <c r="O35" t="n">
-        <v>1863.296465032332</v>
+        <v>1863.296465032333</v>
       </c>
       <c r="P35" t="n">
-        <v>2144.591619978895</v>
+        <v>2144.591619978897</v>
       </c>
       <c r="Q35" t="n">
-        <v>2348.004495197636</v>
+        <v>2348.004495197637</v>
       </c>
       <c r="R35" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="S35" t="n">
-        <v>2452.449242428857</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="T35" t="n">
-        <v>2452.449242428857</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="U35" t="n">
-        <v>2194.275116709376</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="V35" t="n">
-        <v>2194.275116709376</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="W35" t="n">
-        <v>2194.275116709376</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="X35" t="n">
-        <v>2194.275116709376</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="Y35" t="n">
-        <v>2194.275116709376</v>
+        <v>2170.191821604549</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>183.592416182982</v>
       </c>
       <c r="G36" t="n">
-        <v>90.74774188220553</v>
+        <v>90.74774188220556</v>
       </c>
       <c r="H36" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="I36" t="n">
-        <v>97.29622459830431</v>
+        <v>73.83891875389253</v>
       </c>
       <c r="J36" t="n">
-        <v>188.8511775110215</v>
+        <v>165.3938716666098</v>
       </c>
       <c r="K36" t="n">
-        <v>358.033333715002</v>
+        <v>334.5760278705903</v>
       </c>
       <c r="L36" t="n">
-        <v>593.0470340438125</v>
+        <v>569.589728199401</v>
       </c>
       <c r="M36" t="n">
-        <v>870.442428525409</v>
+        <v>846.9851226809977</v>
       </c>
       <c r="N36" t="n">
-        <v>1157.521058481985</v>
+        <v>1134.063752637574</v>
       </c>
       <c r="O36" t="n">
-        <v>1416.531202809675</v>
+        <v>1393.073896965264</v>
       </c>
       <c r="P36" t="n">
-        <v>1621.268055105799</v>
+        <v>1597.810749261389</v>
       </c>
       <c r="Q36" t="n">
         <v>1767.298649348451</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>840.0581562757841</v>
+        <v>791.5485207585568</v>
       </c>
       <c r="C37" t="n">
-        <v>668.0855931547001</v>
+        <v>619.5759576374728</v>
       </c>
       <c r="D37" t="n">
-        <v>504.7688202814708</v>
+        <v>456.2591847642435</v>
       </c>
       <c r="E37" t="n">
-        <v>455.438907740501</v>
+        <v>290.050978917097</v>
       </c>
       <c r="F37" t="n">
-        <v>283.5771335150614</v>
+        <v>290.050978917097</v>
       </c>
       <c r="G37" t="n">
-        <v>118.3338305216665</v>
+        <v>183.832834752234</v>
       </c>
       <c r="H37" t="n">
-        <v>118.3338305216665</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="I37" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="J37" t="n">
-        <v>176.7803915298658</v>
+        <v>176.7803915298659</v>
       </c>
       <c r="K37" t="n">
-        <v>271.4514094262494</v>
+        <v>518.7340185402716</v>
       </c>
       <c r="L37" t="n">
-        <v>397.4574103695611</v>
+        <v>1021.128913074748</v>
       </c>
       <c r="M37" t="n">
-        <v>944.378022471907</v>
+        <v>1568.049525177094</v>
       </c>
       <c r="N37" t="n">
-        <v>1473.901324613068</v>
+        <v>1713.347818878736</v>
       </c>
       <c r="O37" t="n">
-        <v>1969.755419584649</v>
+        <v>1831.499589547114</v>
       </c>
       <c r="P37" t="n">
-        <v>2242.257474966977</v>
+        <v>2242.257474966979</v>
       </c>
       <c r="Q37" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="R37" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="S37" t="n">
-        <v>2299.979641199074</v>
+        <v>2299.979641199076</v>
       </c>
       <c r="T37" t="n">
-        <v>2060.971414832386</v>
+        <v>2060.971414832387</v>
       </c>
       <c r="U37" t="n">
-        <v>1780.842257244274</v>
+        <v>1780.842257244276</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.130789852303</v>
+        <v>1499.130789852304</v>
       </c>
       <c r="W37" t="n">
-        <v>1499.130789852303</v>
+        <v>1224.278386024817</v>
       </c>
       <c r="X37" t="n">
-        <v>1256.566893298108</v>
+        <v>981.7144894706224</v>
       </c>
       <c r="Y37" t="n">
-        <v>1030.22412498785</v>
+        <v>981.7144894706224</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>608.8259890121897</v>
+        <v>1303.15316300509</v>
       </c>
       <c r="C38" t="n">
-        <v>608.8259890121897</v>
+        <v>876.2524330183898</v>
       </c>
       <c r="D38" t="n">
-        <v>608.8259890121897</v>
+        <v>876.2524330183898</v>
       </c>
       <c r="E38" t="n">
-        <v>608.8259890121897</v>
+        <v>876.2524330183898</v>
       </c>
       <c r="F38" t="n">
-        <v>608.8259890121897</v>
+        <v>451.12825120779</v>
       </c>
       <c r="G38" t="n">
-        <v>206.7467226529769</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="H38" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="I38" t="n">
-        <v>100.2336449326259</v>
+        <v>100.233644932626</v>
       </c>
       <c r="J38" t="n">
-        <v>259.0884825884577</v>
+        <v>259.088482588458</v>
       </c>
       <c r="K38" t="n">
-        <v>505.4157145809429</v>
+        <v>505.4157145809431</v>
       </c>
       <c r="L38" t="n">
-        <v>817.0029639133629</v>
+        <v>817.0029639133631</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.850098815877</v>
+        <v>1168.850098815878</v>
       </c>
       <c r="N38" t="n">
-        <v>1527.140232067529</v>
+        <v>1527.14023206753</v>
       </c>
       <c r="O38" t="n">
-        <v>1863.296465032332</v>
+        <v>1863.296465032333</v>
       </c>
       <c r="P38" t="n">
-        <v>2144.591619978895</v>
+        <v>2144.591619978897</v>
       </c>
       <c r="Q38" t="n">
-        <v>2348.004495197636</v>
+        <v>2348.004495197637</v>
       </c>
       <c r="R38" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="S38" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="T38" t="n">
-        <v>2452.449242428857</v>
+        <v>2378.384557601933</v>
       </c>
       <c r="U38" t="n">
-        <v>2194.275116709376</v>
+        <v>2120.210431882452</v>
       </c>
       <c r="V38" t="n">
-        <v>1836.785701835626</v>
+        <v>2120.210431882452</v>
       </c>
       <c r="W38" t="n">
-        <v>1440.394352135972</v>
+        <v>2120.210431882452</v>
       </c>
       <c r="X38" t="n">
-        <v>1028.67435330372</v>
+        <v>1708.490433050199</v>
       </c>
       <c r="Y38" t="n">
-        <v>1028.67435330372</v>
+        <v>1303.15316300509</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>183.592416182982</v>
       </c>
       <c r="G39" t="n">
-        <v>90.74774188220553</v>
+        <v>90.74774188220556</v>
       </c>
       <c r="H39" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="I39" t="n">
-        <v>97.29622459830431</v>
+        <v>97.29622459830438</v>
       </c>
       <c r="J39" t="n">
-        <v>188.8511775110215</v>
+        <v>206.1324773779036</v>
       </c>
       <c r="K39" t="n">
-        <v>358.033333715002</v>
+        <v>375.3146335818842</v>
       </c>
       <c r="L39" t="n">
-        <v>593.0470340438125</v>
+        <v>610.3283339106948</v>
       </c>
       <c r="M39" t="n">
-        <v>870.442428525409</v>
+        <v>887.7237283922916</v>
       </c>
       <c r="N39" t="n">
-        <v>1157.521058481985</v>
+        <v>1174.802358348868</v>
       </c>
       <c r="O39" t="n">
-        <v>1416.531202809675</v>
+        <v>1433.812502676558</v>
       </c>
       <c r="P39" t="n">
-        <v>1621.268055105799</v>
+        <v>1638.549354972683</v>
       </c>
       <c r="Q39" t="n">
         <v>1767.298649348451</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>753.911249296597</v>
+        <v>1091.720299485617</v>
       </c>
       <c r="C40" t="n">
-        <v>581.938686175513</v>
+        <v>919.7477363645336</v>
       </c>
       <c r="D40" t="n">
-        <v>581.938686175513</v>
+        <v>756.4309634913043</v>
       </c>
       <c r="E40" t="n">
-        <v>581.938686175513</v>
+        <v>590.2227576441578</v>
       </c>
       <c r="F40" t="n">
-        <v>418.3609834187181</v>
+        <v>418.3609834187182</v>
       </c>
       <c r="G40" t="n">
         <v>253.1176804253233</v>
@@ -7329,13 +7329,13 @@
         <v>118.3338305216665</v>
       </c>
       <c r="I40" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="J40" t="n">
-        <v>176.7803915298658</v>
+        <v>176.7803915298659</v>
       </c>
       <c r="K40" t="n">
-        <v>518.7340185402714</v>
+        <v>518.7340185402716</v>
       </c>
       <c r="L40" t="n">
         <v>1021.128913074748</v>
@@ -7344,40 +7344,40 @@
         <v>1568.049525177094</v>
       </c>
       <c r="N40" t="n">
-        <v>2097.572827318255</v>
+        <v>1699.539904476375</v>
       </c>
       <c r="O40" t="n">
-        <v>2295.629291498319</v>
+        <v>1831.499589547114</v>
       </c>
       <c r="P40" t="n">
-        <v>2393.630972344877</v>
+        <v>2242.257474966979</v>
       </c>
       <c r="Q40" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="R40" t="n">
-        <v>2450.988770565091</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="S40" t="n">
-        <v>2298.519169335308</v>
+        <v>2299.979641199076</v>
       </c>
       <c r="T40" t="n">
-        <v>2059.51094296862</v>
+        <v>2060.971414832387</v>
       </c>
       <c r="U40" t="n">
-        <v>1779.381785380508</v>
+        <v>2060.971414832387</v>
       </c>
       <c r="V40" t="n">
-        <v>1497.670317988537</v>
+        <v>2025.645336889623</v>
       </c>
       <c r="W40" t="n">
-        <v>1222.81791416105</v>
+        <v>1750.792933062136</v>
       </c>
       <c r="X40" t="n">
-        <v>980.254017606855</v>
+        <v>1508.229036507941</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.911249296597</v>
+        <v>1281.886268197683</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1372.30402309006</v>
+        <v>1750.343457313019</v>
       </c>
       <c r="C41" t="n">
-        <v>1372.30402309006</v>
+        <v>1323.442727326319</v>
       </c>
       <c r="D41" t="n">
-        <v>1372.30402309006</v>
+        <v>900.1501065113193</v>
       </c>
       <c r="E41" t="n">
-        <v>1150.977675233584</v>
+        <v>474.173166659177</v>
       </c>
       <c r="F41" t="n">
-        <v>725.853493422984</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="G41" t="n">
-        <v>323.7742270637712</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="H41" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="I41" t="n">
-        <v>100.2336449326258</v>
+        <v>100.233644932626</v>
       </c>
       <c r="J41" t="n">
-        <v>259.0884825884573</v>
+        <v>259.088482588458</v>
       </c>
       <c r="K41" t="n">
-        <v>505.4157145809423</v>
+        <v>505.4157145809431</v>
       </c>
       <c r="L41" t="n">
-        <v>817.0029639133622</v>
+        <v>817.0029639133631</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.850098815876</v>
+        <v>1168.850098815878</v>
       </c>
       <c r="N41" t="n">
-        <v>1527.140232067528</v>
+        <v>1527.14023206753</v>
       </c>
       <c r="O41" t="n">
-        <v>1863.296465032331</v>
+        <v>1863.296465032333</v>
       </c>
       <c r="P41" t="n">
-        <v>2144.591619978895</v>
+        <v>2144.591619978897</v>
       </c>
       <c r="Q41" t="n">
-        <v>2348.004495197636</v>
+        <v>2348.004495197637</v>
       </c>
       <c r="R41" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="S41" t="n">
-        <v>2399.577050821875</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="T41" t="n">
-        <v>2188.543737081243</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="U41" t="n">
-        <v>2188.543737081243</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="V41" t="n">
-        <v>2188.543737081243</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="W41" t="n">
-        <v>1792.15238738159</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="X41" t="n">
-        <v>1792.15238738159</v>
+        <v>2155.680727358128</v>
       </c>
       <c r="Y41" t="n">
-        <v>1792.15238738159</v>
+        <v>1750.343457313019</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>183.592416182982</v>
       </c>
       <c r="G42" t="n">
-        <v>90.74774188220553</v>
+        <v>90.74774188220556</v>
       </c>
       <c r="H42" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="I42" t="n">
-        <v>73.83891875389246</v>
+        <v>97.29622459830438</v>
       </c>
       <c r="J42" t="n">
-        <v>206.1324773779049</v>
+        <v>188.8511775110216</v>
       </c>
       <c r="K42" t="n">
-        <v>375.3146335818853</v>
+        <v>358.0333337150022</v>
       </c>
       <c r="L42" t="n">
-        <v>610.3283339106958</v>
+        <v>593.0470340438128</v>
       </c>
       <c r="M42" t="n">
-        <v>887.7237283922925</v>
+        <v>870.4424285254096</v>
       </c>
       <c r="N42" t="n">
-        <v>1174.802358348868</v>
+        <v>1157.521058481986</v>
       </c>
       <c r="O42" t="n">
-        <v>1433.812502676559</v>
+        <v>1416.531202809676</v>
       </c>
       <c r="P42" t="n">
-        <v>1638.549354972683</v>
+        <v>1621.268055105801</v>
       </c>
       <c r="Q42" t="n">
-        <v>1767.298649348451</v>
+        <v>1750.017349481569</v>
       </c>
       <c r="R42" t="n">
         <v>1817.4386691009</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>996.3440394024265</v>
+        <v>1091.720299485617</v>
       </c>
       <c r="C43" t="n">
-        <v>824.3714762813424</v>
+        <v>919.7477363645336</v>
       </c>
       <c r="D43" t="n">
-        <v>756.4309634913042</v>
+        <v>756.4309634913043</v>
       </c>
       <c r="E43" t="n">
-        <v>590.2227576441577</v>
+        <v>590.2227576441578</v>
       </c>
       <c r="F43" t="n">
-        <v>418.3609834187181</v>
+        <v>418.3609834187182</v>
       </c>
       <c r="G43" t="n">
         <v>253.1176804253233</v>
@@ -7566,55 +7566,55 @@
         <v>118.3338305216665</v>
       </c>
       <c r="I43" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="J43" t="n">
-        <v>176.7803915298658</v>
+        <v>98.85867488164502</v>
       </c>
       <c r="K43" t="n">
-        <v>518.7340185402714</v>
+        <v>193.5296927780287</v>
       </c>
       <c r="L43" t="n">
-        <v>1021.128913074748</v>
+        <v>695.9245873125055</v>
       </c>
       <c r="M43" t="n">
-        <v>1204.15511527625</v>
+        <v>957.4956898122712</v>
       </c>
       <c r="N43" t="n">
-        <v>1335.645494575532</v>
+        <v>1487.018991953433</v>
       </c>
       <c r="O43" t="n">
-        <v>1831.499589547112</v>
+        <v>1982.873086925013</v>
       </c>
       <c r="P43" t="n">
-        <v>2242.257474966977</v>
+        <v>2393.630972344879</v>
       </c>
       <c r="Q43" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="R43" t="n">
-        <v>2450.988770565091</v>
+        <v>2450.988770565093</v>
       </c>
       <c r="S43" t="n">
-        <v>2450.988770565091</v>
+        <v>2450.988770565093</v>
       </c>
       <c r="T43" t="n">
-        <v>2211.980544198403</v>
+        <v>2307.356804281594</v>
       </c>
       <c r="U43" t="n">
-        <v>2211.980544198403</v>
+        <v>2307.356804281594</v>
       </c>
       <c r="V43" t="n">
-        <v>1930.269076806432</v>
+        <v>2025.645336889623</v>
       </c>
       <c r="W43" t="n">
-        <v>1655.416672978945</v>
+        <v>1750.792933062136</v>
       </c>
       <c r="X43" t="n">
-        <v>1412.85277642475</v>
+        <v>1508.229036507941</v>
       </c>
       <c r="Y43" t="n">
-        <v>1186.510008114492</v>
+        <v>1281.886268197683</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2152.422723672232</v>
+        <v>1727.298541861632</v>
       </c>
       <c r="C44" t="n">
-        <v>1725.521993685532</v>
+        <v>1300.397811874932</v>
       </c>
       <c r="D44" t="n">
-        <v>1302.229372870532</v>
+        <v>877.1051910599324</v>
       </c>
       <c r="E44" t="n">
-        <v>876.2524330183898</v>
+        <v>451.12825120779</v>
       </c>
       <c r="F44" t="n">
         <v>451.12825120779</v>
       </c>
       <c r="G44" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="H44" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="I44" t="n">
-        <v>100.2336449326259</v>
+        <v>100.2336449326262</v>
       </c>
       <c r="J44" t="n">
-        <v>259.0884825884576</v>
+        <v>259.0884825884581</v>
       </c>
       <c r="K44" t="n">
-        <v>505.4157145809426</v>
+        <v>505.4157145809432</v>
       </c>
       <c r="L44" t="n">
-        <v>817.0029639133625</v>
+        <v>817.0029639133634</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.850098815877</v>
+        <v>1168.850098815878</v>
       </c>
       <c r="N44" t="n">
-        <v>1527.140232067529</v>
+        <v>1527.14023206753</v>
       </c>
       <c r="O44" t="n">
-        <v>1863.296465032332</v>
+        <v>1863.296465032333</v>
       </c>
       <c r="P44" t="n">
-        <v>2144.591619978895</v>
+        <v>2144.591619978897</v>
       </c>
       <c r="Q44" t="n">
-        <v>2348.004495197636</v>
+        <v>2348.004495197637</v>
       </c>
       <c r="R44" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="S44" t="n">
-        <v>2399.577050821875</v>
+        <v>2399.577050821877</v>
       </c>
       <c r="T44" t="n">
-        <v>2399.577050821875</v>
+        <v>2188.543737081245</v>
       </c>
       <c r="U44" t="n">
-        <v>2152.422723672232</v>
+        <v>1930.369611361764</v>
       </c>
       <c r="V44" t="n">
-        <v>2152.422723672232</v>
+        <v>1930.369611361764</v>
       </c>
       <c r="W44" t="n">
-        <v>2152.422723672232</v>
+        <v>1930.369611361764</v>
       </c>
       <c r="X44" t="n">
-        <v>2152.422723672232</v>
+        <v>1930.369611361764</v>
       </c>
       <c r="Y44" t="n">
-        <v>2152.422723672232</v>
+        <v>1727.298541861632</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>183.592416182982</v>
       </c>
       <c r="G45" t="n">
-        <v>90.74774188220553</v>
+        <v>90.74774188220556</v>
       </c>
       <c r="H45" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="I45" t="n">
-        <v>73.83891875389246</v>
+        <v>97.29622459830438</v>
       </c>
       <c r="J45" t="n">
-        <v>165.3938716666096</v>
+        <v>206.1324773779036</v>
       </c>
       <c r="K45" t="n">
-        <v>334.5760278705901</v>
+        <v>375.3146335818842</v>
       </c>
       <c r="L45" t="n">
-        <v>569.5897281994006</v>
+        <v>610.3283339106948</v>
       </c>
       <c r="M45" t="n">
-        <v>887.7237283922925</v>
+        <v>887.7237283922916</v>
       </c>
       <c r="N45" t="n">
         <v>1174.802358348868</v>
       </c>
       <c r="O45" t="n">
-        <v>1433.812502676559</v>
+        <v>1433.812502676558</v>
       </c>
       <c r="P45" t="n">
         <v>1638.549354972683</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>563.7452805845314</v>
+        <v>760.2687906450763</v>
       </c>
       <c r="C46" t="n">
-        <v>391.7727174634474</v>
+        <v>588.2962275239922</v>
       </c>
       <c r="D46" t="n">
-        <v>380.5004936891185</v>
+        <v>424.9794546507629</v>
       </c>
       <c r="E46" t="n">
-        <v>214.292287841972</v>
+        <v>424.9794546507629</v>
       </c>
       <c r="F46" t="n">
-        <v>214.292287841972</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="G46" t="n">
-        <v>49.04898484857714</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="H46" t="n">
-        <v>49.04898484857714</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="I46" t="n">
-        <v>49.04898484857714</v>
+        <v>49.04898484857718</v>
       </c>
       <c r="J46" t="n">
-        <v>176.7803915298658</v>
+        <v>98.85867488164502</v>
       </c>
       <c r="K46" t="n">
-        <v>518.7340185402714</v>
+        <v>193.5296927780287</v>
       </c>
       <c r="L46" t="n">
-        <v>1021.128913074748</v>
+        <v>695.9245873125055</v>
       </c>
       <c r="M46" t="n">
-        <v>1154.514044714272</v>
+        <v>1242.845199414851</v>
       </c>
       <c r="N46" t="n">
-        <v>1684.037346855433</v>
+        <v>1772.368501556013</v>
       </c>
       <c r="O46" t="n">
-        <v>1831.499589547112</v>
+        <v>2268.222596527594</v>
       </c>
       <c r="P46" t="n">
-        <v>2242.257474966977</v>
+        <v>2393.630972344879</v>
       </c>
       <c r="Q46" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="R46" t="n">
-        <v>2450.988770565091</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="S46" t="n">
-        <v>2298.519169335308</v>
+        <v>2452.449242428859</v>
       </c>
       <c r="T46" t="n">
-        <v>2059.51094296862</v>
+        <v>2213.441016062171</v>
       </c>
       <c r="U46" t="n">
-        <v>1779.381785380508</v>
+        <v>1975.905295441053</v>
       </c>
       <c r="V46" t="n">
-        <v>1497.670317988537</v>
+        <v>1694.193828049082</v>
       </c>
       <c r="W46" t="n">
-        <v>1222.81791416105</v>
+        <v>1419.341424221595</v>
       </c>
       <c r="X46" t="n">
-        <v>980.254017606855</v>
+        <v>1176.7775276674</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.911249296597</v>
+        <v>950.434759357142</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>70.37539003541784</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.5903457215977</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>50.95854331539942</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>354.4082905479648</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>282.5698706145105</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.37539003541777</v>
+        <v>70.37539003541846</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>126.5047566361197</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M16" t="n">
-        <v>354.4082905479649</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N16" t="n">
-        <v>355.4735849779359</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>70.37539003541897</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9324,19 +9324,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M19" t="n">
-        <v>354.4082905479649</v>
+        <v>5.786655404040161</v>
       </c>
       <c r="N19" t="n">
-        <v>250.3670143149447</v>
+        <v>355.4735849779358</v>
       </c>
       <c r="O19" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>176.8960973939085</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
@@ -9567,16 +9567,16 @@
         <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O22" t="n">
-        <v>276.9562095262307</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>17.45585845139705</v>
+        <v>17.45585845139608</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9813,10 +9813,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>176.2630045815868</v>
+        <v>27.6835302734614</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>17.4558584513975</v>
+        <v>41.1501067790846</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>79.38511393903843</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10050,7 +10050,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>158.0939186342121</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>17.45585845139598</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>17.4558584513975</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10287,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>27.68353027346011</v>
+        <v>195.6157235550776</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>41.15010677908469</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>17.4558584513975</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>308.0000906312661</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
@@ -10521,13 +10521,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>159.4206163231384</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>17.4558584513974</v>
+        <v>41.15010677908467</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>13.94738828521318</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>176.2630045815868</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
         <v>152.9025226039384</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>17.45585845139597</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>17.4558584513974</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10992,16 +10992,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>80.71181162796583</v>
+        <v>13.94738828521335</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>41.15010677908616</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>17.45585845139608</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>50.14249551714957</v>
+        <v>129.4807786467085</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
@@ -11238,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>17.45585845139597</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>41.15010677908612</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>29.60653739727405</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>27.68353027346187</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>391.2438274108426</v>
       </c>
       <c r="H11" t="n">
         <v>277.176001558223</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>326.9044507770393</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23418,10 +23418,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>132.9595093485659</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>94.86434932595512</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>150.4764332524968</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>153.3576295513093</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>23.37658429254761</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578063</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3402845023203</v>
+        <v>185.6721007846185</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>383.5903380678382</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76762055937598</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
         <v>255.632988972596</v>
@@ -23797,7 +23797,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23898,19 +23898,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>45.77610084253599</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>56.50154899155973</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>7.057677961572153</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
         <v>255.632988972596</v>
@@ -24031,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>373.8797161160131</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -24135,19 +24135,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>55.02530655248594</v>
       </c>
       <c r="H22" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>68.21933217256102</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.0584736956206</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.34346969091202</v>
       </c>
       <c r="T23" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5923844622858</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>174.1925204195054</v>
+        <v>63.00948586412483</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>24.38463312087271</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>68.59199721635846</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.445867145127849</v>
+        <v>1.445867145127821</v>
       </c>
       <c r="S25" t="n">
         <v>150.9449052174855</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>208.6208912049632</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3278660122306</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>65.76903433533909</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>115.3529555550367</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>53.89425742923318</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>68.59199721635845</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.6181441030213</v>
       </c>
       <c r="U28" t="n">
-        <v>135.1322193915685</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>67.52781702967621</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>75.61668647374319</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>271.9779897930421</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.34346969091205</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.41511847675412</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5908699634609</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3278660122306</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>111.9313912952224</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>403.5043263707518</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>131.6326450199761</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>139.5674963147705</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>163.5908699634609</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.59199721635846</v>
+        <v>18.70840477555414</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>398.0584736956206</v>
       </c>
       <c r="H35" t="n">
-        <v>248.1355276392633</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.34346969091205</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>208.9229806032259</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25219,7 +25219,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>180.5114219187752</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>115.7095103731149</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>58.43490724024649</v>
       </c>
       <c r="H37" t="n">
-        <v>133.4360114046202</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>68.59199721635845</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.445867145127849</v>
+        <v>1.445867145127821</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25402,13 +25402,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>115.8572293666864</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.34346969091205</v>
+        <v>52.34346969091202</v>
       </c>
       <c r="T38" t="n">
-        <v>208.9229806032259</v>
+        <v>135.5989426245695</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>8.201230753958299</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.445867145127821</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3278660122306</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>243.9215355547146</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>202.6040860757099</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U41" t="n">
         <v>255.5923844622858</v>
@@ -25690,13 +25690,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>166.1454386148191</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>94.42249748235911</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>150.9449052174855</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>94.42249748235733</v>
       </c>
       <c r="U43" t="n">
         <v>277.3278660122306</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.9096005841388</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>200.2435385395278</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>150.5241036079113</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H46" t="n">
-        <v>133.4360114046202</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>68.59199721635846</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.445867145127821</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>42.16750259732416</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>371127.1587254842</v>
+        <v>371127.1587254841</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>444075.7120516197</v>
+        <v>444075.7120516198</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>444075.7120516197</v>
+        <v>444075.7120516198</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>444075.7120516197</v>
+        <v>444075.7120516199</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>444075.7120516197</v>
+        <v>444075.71205162</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>444075.7120516197</v>
+        <v>444075.71205162</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>444075.7120516197</v>
+        <v>444075.7120516198</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>444075.7120516197</v>
+        <v>444075.71205162</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>444075.7120516197</v>
+        <v>444075.7120516199</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>344254.3268475796</v>
       </c>
       <c r="C2" t="n">
-        <v>344254.3268475798</v>
+        <v>344254.3268475797</v>
       </c>
       <c r="D2" t="n">
-        <v>344261.6519847692</v>
+        <v>344261.6519847691</v>
       </c>
       <c r="E2" t="n">
         <v>184523.1391850204</v>
@@ -26328,34 +26328,34 @@
         <v>184523.1391850204</v>
       </c>
       <c r="G2" t="n">
-        <v>184523.1391850203</v>
+        <v>184523.1391850204</v>
       </c>
       <c r="H2" t="n">
         <v>184523.1391850204</v>
       </c>
       <c r="I2" t="n">
+        <v>224320.7572946096</v>
+      </c>
+      <c r="J2" t="n">
         <v>224320.7572946095</v>
       </c>
-      <c r="J2" t="n">
-        <v>224320.7572946094</v>
-      </c>
       <c r="K2" t="n">
-        <v>224320.7572946092</v>
+        <v>224320.7572946096</v>
       </c>
       <c r="L2" t="n">
-        <v>224320.7572946094</v>
+        <v>224320.7572946096</v>
       </c>
       <c r="M2" t="n">
-        <v>224320.7572946094</v>
+        <v>224320.7572946096</v>
       </c>
       <c r="N2" t="n">
-        <v>224320.7572946094</v>
+        <v>224320.7572946096</v>
       </c>
       <c r="O2" t="n">
-        <v>224320.7572946094</v>
+        <v>224320.7572946096</v>
       </c>
       <c r="P2" t="n">
-        <v>224320.7572946094</v>
+        <v>224320.7572946096</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>32673.69813039072</v>
       </c>
       <c r="E3" t="n">
-        <v>450402.4144597793</v>
+        <v>450402.4144597792</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>137495.0702174701</v>
+        <v>137495.0702174704</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>310388.2500512035</v>
       </c>
       <c r="E4" t="n">
-        <v>17851.02027559606</v>
+        <v>17851.02027559605</v>
       </c>
       <c r="F4" t="n">
         <v>17851.02027559606</v>
       </c>
       <c r="G4" t="n">
-        <v>17851.02027559607</v>
+        <v>17851.02027559606</v>
       </c>
       <c r="H4" t="n">
-        <v>17851.02027559605</v>
+        <v>17851.02027559606</v>
       </c>
       <c r="I4" t="n">
-        <v>14618.46055406902</v>
+        <v>14618.46055406901</v>
       </c>
       <c r="J4" t="n">
-        <v>14618.46055406902</v>
+        <v>14618.46055406901</v>
       </c>
       <c r="K4" t="n">
-        <v>14618.46055406902</v>
+        <v>14618.46055406901</v>
       </c>
       <c r="L4" t="n">
-        <v>14618.46055406902</v>
+        <v>14618.46055406901</v>
       </c>
       <c r="M4" t="n">
-        <v>14618.46055406902</v>
+        <v>14618.46055406901</v>
       </c>
       <c r="N4" t="n">
-        <v>14618.46055406902</v>
+        <v>14618.46055406901</v>
       </c>
       <c r="O4" t="n">
         <v>14618.46055406902</v>
       </c>
       <c r="P4" t="n">
-        <v>14618.46055406902</v>
+        <v>14618.46055406901</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
         <v>36949.30081304155</v>
@@ -26490,28 +26490,28 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>49408.9944319409</v>
+        <v>49408.99443194093</v>
       </c>
       <c r="J5" t="n">
-        <v>49408.9944319409</v>
+        <v>49408.99443194093</v>
       </c>
       <c r="K5" t="n">
-        <v>49408.9944319409</v>
+        <v>49408.99443194094</v>
       </c>
       <c r="L5" t="n">
-        <v>49408.9944319409</v>
+        <v>49408.99443194094</v>
       </c>
       <c r="M5" t="n">
-        <v>49408.9944319409</v>
+        <v>49408.99443194094</v>
       </c>
       <c r="N5" t="n">
-        <v>49408.9944319409</v>
+        <v>49408.99443194094</v>
       </c>
       <c r="O5" t="n">
-        <v>49408.9944319409</v>
+        <v>49408.99443194094</v>
       </c>
       <c r="P5" t="n">
-        <v>49408.9944319409</v>
+        <v>49408.99443194094</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8185.248505558528</v>
+        <v>-8206.962147054875</v>
       </c>
       <c r="C6" t="n">
-        <v>-8185.248505558353</v>
+        <v>-8206.962147054817</v>
       </c>
       <c r="D6" t="n">
-        <v>-33259.60448188643</v>
+        <v>-33281.28760197787</v>
       </c>
       <c r="E6" t="n">
-        <v>-320679.5963633966</v>
+        <v>-321366.8566201535</v>
       </c>
       <c r="F6" t="n">
-        <v>129722.8180963828</v>
+        <v>129035.5578396258</v>
       </c>
       <c r="G6" t="n">
-        <v>129722.8180963827</v>
+        <v>129035.5578396258</v>
       </c>
       <c r="H6" t="n">
-        <v>129722.8180963828</v>
+        <v>129035.5578396257</v>
       </c>
       <c r="I6" t="n">
-        <v>22798.23209112944</v>
+        <v>22276.79524316218</v>
       </c>
       <c r="J6" t="n">
-        <v>160293.3023085995</v>
+        <v>159771.8654606325</v>
       </c>
       <c r="K6" t="n">
-        <v>160293.3023085993</v>
+        <v>159771.8654606325</v>
       </c>
       <c r="L6" t="n">
-        <v>160293.3023085995</v>
+        <v>159771.8654606325</v>
       </c>
       <c r="M6" t="n">
-        <v>47291.23116610359</v>
+        <v>46769.7943181368</v>
       </c>
       <c r="N6" t="n">
-        <v>160293.3023085995</v>
+        <v>159771.8654606325</v>
       </c>
       <c r="O6" t="n">
-        <v>160293.3023085994</v>
+        <v>159771.8654606327</v>
       </c>
       <c r="P6" t="n">
-        <v>160293.3023085995</v>
+        <v>159771.8654606327</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>430.2483758469461</v>
       </c>
       <c r="G3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>556.503025092765</v>
+        <v>556.5030250927654</v>
       </c>
       <c r="J3" t="n">
-        <v>556.503025092765</v>
+        <v>556.5030250927654</v>
       </c>
       <c r="K3" t="n">
-        <v>556.503025092765</v>
+        <v>556.5030250927654</v>
       </c>
       <c r="L3" t="n">
-        <v>556.503025092765</v>
+        <v>556.5030250927654</v>
       </c>
       <c r="M3" t="n">
-        <v>556.503025092765</v>
+        <v>556.5030250927654</v>
       </c>
       <c r="N3" t="n">
-        <v>556.503025092765</v>
+        <v>556.5030250927654</v>
       </c>
       <c r="O3" t="n">
-        <v>556.503025092765</v>
+        <v>556.5030250927654</v>
       </c>
       <c r="P3" t="n">
-        <v>556.503025092765</v>
+        <v>556.5030250927654</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="G4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="H4" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>613.1123106072142</v>
+        <v>613.1123106072146</v>
       </c>
       <c r="J4" t="n">
-        <v>613.1123106072142</v>
+        <v>613.1123106072146</v>
       </c>
       <c r="K4" t="n">
-        <v>613.1123106072142</v>
+        <v>613.1123106072147</v>
       </c>
       <c r="L4" t="n">
-        <v>613.1123106072142</v>
+        <v>613.1123106072147</v>
       </c>
       <c r="M4" t="n">
-        <v>613.1123106072142</v>
+        <v>613.1123106072147</v>
       </c>
       <c r="N4" t="n">
-        <v>613.1123106072142</v>
+        <v>613.1123106072147</v>
       </c>
       <c r="O4" t="n">
-        <v>613.1123106072142</v>
+        <v>613.1123106072147</v>
       </c>
       <c r="P4" t="n">
-        <v>613.1123106072142</v>
+        <v>613.1123106072147</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.254649245819</v>
+        <v>126.2546492458193</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>159.6602346273107</v>
+        <v>159.6602346273111</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I11" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J11" t="n">
         <v>146.801178249406</v>
@@ -31773,7 +31773,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N11" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
         <v>291.4251699938981</v>
@@ -31782,16 +31782,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R11" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S11" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I12" t="n">
         <v>31.86273349432573</v>
@@ -31843,7 +31843,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K12" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L12" t="n">
         <v>200.9381683613497</v>
@@ -31852,7 +31852,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N12" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O12" t="n">
         <v>220.1856947600876</v>
@@ -31864,16 +31864,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T12" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,19 +31913,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J13" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L13" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M13" t="n">
         <v>121.6192253234244</v>
@@ -31937,16 +31937,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R13" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S13" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
         <v>3.315028469640403</v>
@@ -31995,7 +31995,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32010,7 +32010,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
         <v>291.4251699938981</v>
@@ -32019,16 +32019,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I15" t="n">
         <v>31.86273349432573</v>
@@ -32080,7 +32080,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
@@ -32089,7 +32089,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,19 +32150,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L16" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,16 +32174,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S16" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
         <v>3.315028469640403</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H17" t="n">
         <v>17.71369318248255</v>
@@ -32250,7 +32250,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P17" t="n">
         <v>248.7246402301936</v>
@@ -32265,7 +32265,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
@@ -32323,7 +32323,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
         <v>240.6914947108307</v>
@@ -32338,7 +32338,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
@@ -32347,7 +32347,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
@@ -32396,7 +32396,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L19" t="n">
         <v>115.3488842393599</v>
@@ -32411,10 +32411,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R19" t="n">
         <v>34.88538470391794</v>
@@ -32423,10 +32423,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H20" t="n">
         <v>17.71369318248255</v>
@@ -32487,7 +32487,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O20" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P20" t="n">
         <v>248.7246402301936</v>
@@ -32502,7 +32502,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
@@ -32560,7 +32560,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N21" t="n">
         <v>240.6914947108307</v>
@@ -32575,7 +32575,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S21" t="n">
         <v>17.18964029916807</v>
@@ -32584,7 +32584,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H22" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I22" t="n">
         <v>23.332157824618</v>
@@ -32633,7 +32633,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L22" t="n">
         <v>115.3488842393599</v>
@@ -32648,10 +32648,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R22" t="n">
         <v>34.88538470391794</v>
@@ -32660,10 +32660,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T22" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.237198090825185</v>
+        <v>2.237198090825186</v>
       </c>
       <c r="H23" t="n">
-        <v>22.91170494766342</v>
+        <v>22.91170494766344</v>
       </c>
       <c r="I23" t="n">
-        <v>86.24957939653801</v>
+        <v>86.24957939653805</v>
       </c>
       <c r="J23" t="n">
-        <v>189.8793914611742</v>
+        <v>189.8793914611743</v>
       </c>
       <c r="K23" t="n">
-        <v>284.5799866458043</v>
+        <v>284.5799866458045</v>
       </c>
       <c r="L23" t="n">
-        <v>353.0466377178956</v>
+        <v>353.0466377178958</v>
       </c>
       <c r="M23" t="n">
-        <v>392.832409265608</v>
+        <v>392.8324092656082</v>
       </c>
       <c r="N23" t="n">
-        <v>399.1888483411651</v>
+        <v>399.1888483411653</v>
       </c>
       <c r="O23" t="n">
-        <v>376.9427098255221</v>
+        <v>376.9427098255223</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7118819582753</v>
+        <v>321.7118819582755</v>
       </c>
       <c r="Q23" t="n">
-        <v>241.5922253305983</v>
+        <v>241.5922253305984</v>
       </c>
       <c r="R23" t="n">
-        <v>140.5323945727976</v>
+        <v>140.5323945727977</v>
       </c>
       <c r="S23" t="n">
-        <v>50.98015149467894</v>
+        <v>50.98015149467897</v>
       </c>
       <c r="T23" t="n">
-        <v>9.793334642587249</v>
+        <v>9.793334642587256</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1789758472660147</v>
+        <v>0.1789758472660148</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.197006506803306</v>
+        <v>1.197006506803307</v>
       </c>
       <c r="H24" t="n">
-        <v>11.5605628420214</v>
+        <v>11.56056284202141</v>
       </c>
       <c r="I24" t="n">
-        <v>41.21272402809628</v>
+        <v>41.21272402809631</v>
       </c>
       <c r="J24" t="n">
         <v>113.0908647502194</v>
       </c>
       <c r="K24" t="n">
-        <v>193.2903007060409</v>
+        <v>193.290300706041</v>
       </c>
       <c r="L24" t="n">
-        <v>259.9026628039371</v>
+        <v>259.9026628039373</v>
       </c>
       <c r="M24" t="n">
-        <v>303.2941486755569</v>
+        <v>303.2941486755571</v>
       </c>
       <c r="N24" t="n">
-        <v>311.3214423110932</v>
+        <v>311.3214423110933</v>
       </c>
       <c r="O24" t="n">
-        <v>284.7982981340304</v>
+        <v>284.7982981340306</v>
       </c>
       <c r="P24" t="n">
-        <v>228.5757425140453</v>
+        <v>228.5757425140455</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.7968305877343</v>
+        <v>152.7968305877344</v>
       </c>
       <c r="R24" t="n">
-        <v>74.31940399257722</v>
+        <v>74.31940399257726</v>
       </c>
       <c r="S24" t="n">
-        <v>22.23387086101753</v>
+        <v>22.23387086101755</v>
       </c>
       <c r="T24" t="n">
-        <v>4.824776226983499</v>
+        <v>4.824776226983502</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07875042807916489</v>
+        <v>0.07875042807916495</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.003530045249248</v>
+        <v>1.003530045249249</v>
       </c>
       <c r="H25" t="n">
-        <v>8.92229440230696</v>
+        <v>8.922294402306965</v>
       </c>
       <c r="I25" t="n">
-        <v>30.17888536076831</v>
+        <v>30.17888536076833</v>
       </c>
       <c r="J25" t="n">
-        <v>70.94957419912186</v>
+        <v>70.9495741991219</v>
       </c>
       <c r="K25" t="n">
-        <v>116.5919452571399</v>
+        <v>116.59194525714</v>
       </c>
       <c r="L25" t="n">
-        <v>149.1975487273292</v>
+        <v>149.1975487273293</v>
       </c>
       <c r="M25" t="n">
-        <v>157.3078960930253</v>
+        <v>157.3078960930254</v>
       </c>
       <c r="N25" t="n">
-        <v>153.5674659243692</v>
+        <v>153.5674659243693</v>
       </c>
       <c r="O25" t="n">
-        <v>141.8444103957756</v>
+        <v>141.8444103957757</v>
       </c>
       <c r="P25" t="n">
-        <v>121.3723974726908</v>
+        <v>121.3723974726909</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.03195678900752</v>
+        <v>84.03195678900757</v>
       </c>
       <c r="R25" t="n">
-        <v>45.12236003457073</v>
+        <v>45.12236003457076</v>
       </c>
       <c r="S25" t="n">
-        <v>17.48879178857099</v>
+        <v>17.488791788571</v>
       </c>
       <c r="T25" t="n">
-        <v>4.287810193337696</v>
+        <v>4.287810193337699</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05473800246814088</v>
+        <v>0.05473800246814092</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.237198090825185</v>
+        <v>2.237198090825186</v>
       </c>
       <c r="H26" t="n">
-        <v>22.91170494766342</v>
+        <v>22.91170494766344</v>
       </c>
       <c r="I26" t="n">
-        <v>86.24957939653801</v>
+        <v>86.24957939653805</v>
       </c>
       <c r="J26" t="n">
-        <v>189.8793914611742</v>
+        <v>189.8793914611743</v>
       </c>
       <c r="K26" t="n">
-        <v>284.5799866458043</v>
+        <v>284.5799866458045</v>
       </c>
       <c r="L26" t="n">
-        <v>353.0466377178956</v>
+        <v>353.0466377178958</v>
       </c>
       <c r="M26" t="n">
-        <v>392.832409265608</v>
+        <v>392.8324092656082</v>
       </c>
       <c r="N26" t="n">
-        <v>399.1888483411651</v>
+        <v>399.1888483411653</v>
       </c>
       <c r="O26" t="n">
-        <v>376.9427098255221</v>
+        <v>376.9427098255223</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7118819582753</v>
+        <v>321.7118819582755</v>
       </c>
       <c r="Q26" t="n">
-        <v>241.5922253305983</v>
+        <v>241.5922253305984</v>
       </c>
       <c r="R26" t="n">
-        <v>140.5323945727976</v>
+        <v>140.5323945727977</v>
       </c>
       <c r="S26" t="n">
-        <v>50.98015149467894</v>
+        <v>50.98015149467897</v>
       </c>
       <c r="T26" t="n">
-        <v>9.793334642587249</v>
+        <v>9.793334642587256</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1789758472660147</v>
+        <v>0.1789758472660148</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.197006506803306</v>
+        <v>1.197006506803307</v>
       </c>
       <c r="H27" t="n">
-        <v>11.5605628420214</v>
+        <v>11.56056284202141</v>
       </c>
       <c r="I27" t="n">
-        <v>41.21272402809628</v>
+        <v>41.21272402809631</v>
       </c>
       <c r="J27" t="n">
         <v>113.0908647502194</v>
       </c>
       <c r="K27" t="n">
-        <v>193.2903007060409</v>
+        <v>193.290300706041</v>
       </c>
       <c r="L27" t="n">
-        <v>259.9026628039371</v>
+        <v>259.9026628039373</v>
       </c>
       <c r="M27" t="n">
-        <v>303.2941486755569</v>
+        <v>303.2941486755571</v>
       </c>
       <c r="N27" t="n">
-        <v>311.3214423110932</v>
+        <v>311.3214423110933</v>
       </c>
       <c r="O27" t="n">
-        <v>284.7982981340304</v>
+        <v>284.7982981340306</v>
       </c>
       <c r="P27" t="n">
-        <v>228.5757425140453</v>
+        <v>228.5757425140455</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.7968305877343</v>
+        <v>152.7968305877344</v>
       </c>
       <c r="R27" t="n">
-        <v>74.31940399257722</v>
+        <v>74.31940399257726</v>
       </c>
       <c r="S27" t="n">
-        <v>22.23387086101753</v>
+        <v>22.23387086101755</v>
       </c>
       <c r="T27" t="n">
-        <v>4.824776226983499</v>
+        <v>4.824776226983502</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07875042807916489</v>
+        <v>0.07875042807916495</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.003530045249248</v>
+        <v>1.003530045249249</v>
       </c>
       <c r="H28" t="n">
-        <v>8.92229440230696</v>
+        <v>8.922294402306965</v>
       </c>
       <c r="I28" t="n">
-        <v>30.17888536076831</v>
+        <v>30.17888536076833</v>
       </c>
       <c r="J28" t="n">
-        <v>70.94957419912186</v>
+        <v>70.9495741991219</v>
       </c>
       <c r="K28" t="n">
-        <v>116.5919452571399</v>
+        <v>116.59194525714</v>
       </c>
       <c r="L28" t="n">
-        <v>149.1975487273292</v>
+        <v>149.1975487273293</v>
       </c>
       <c r="M28" t="n">
-        <v>157.3078960930253</v>
+        <v>157.3078960930254</v>
       </c>
       <c r="N28" t="n">
-        <v>153.5674659243692</v>
+        <v>153.5674659243693</v>
       </c>
       <c r="O28" t="n">
-        <v>141.8444103957756</v>
+        <v>141.8444103957757</v>
       </c>
       <c r="P28" t="n">
-        <v>121.3723974726908</v>
+        <v>121.3723974726909</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.03195678900752</v>
+        <v>84.03195678900757</v>
       </c>
       <c r="R28" t="n">
-        <v>45.12236003457073</v>
+        <v>45.12236003457076</v>
       </c>
       <c r="S28" t="n">
-        <v>17.48879178857099</v>
+        <v>17.488791788571</v>
       </c>
       <c r="T28" t="n">
-        <v>4.287810193337696</v>
+        <v>4.287810193337699</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05473800246814088</v>
+        <v>0.05473800246814092</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.237198090825185</v>
+        <v>2.237198090825186</v>
       </c>
       <c r="H29" t="n">
-        <v>22.91170494766342</v>
+        <v>22.91170494766344</v>
       </c>
       <c r="I29" t="n">
-        <v>86.24957939653801</v>
+        <v>86.24957939653805</v>
       </c>
       <c r="J29" t="n">
-        <v>189.8793914611742</v>
+        <v>189.8793914611743</v>
       </c>
       <c r="K29" t="n">
-        <v>284.5799866458043</v>
+        <v>284.5799866458045</v>
       </c>
       <c r="L29" t="n">
-        <v>353.0466377178956</v>
+        <v>353.0466377178958</v>
       </c>
       <c r="M29" t="n">
-        <v>392.832409265608</v>
+        <v>392.8324092656082</v>
       </c>
       <c r="N29" t="n">
-        <v>399.1888483411651</v>
+        <v>399.1888483411653</v>
       </c>
       <c r="O29" t="n">
-        <v>376.9427098255221</v>
+        <v>376.9427098255223</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7118819582753</v>
+        <v>321.7118819582755</v>
       </c>
       <c r="Q29" t="n">
-        <v>241.5922253305983</v>
+        <v>241.5922253305984</v>
       </c>
       <c r="R29" t="n">
-        <v>140.5323945727976</v>
+        <v>140.5323945727977</v>
       </c>
       <c r="S29" t="n">
-        <v>50.98015149467894</v>
+        <v>50.98015149467897</v>
       </c>
       <c r="T29" t="n">
-        <v>9.793334642587249</v>
+        <v>9.793334642587256</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1789758472660147</v>
+        <v>0.1789758472660148</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.197006506803306</v>
+        <v>1.197006506803307</v>
       </c>
       <c r="H30" t="n">
-        <v>11.5605628420214</v>
+        <v>11.56056284202141</v>
       </c>
       <c r="I30" t="n">
-        <v>41.21272402809628</v>
+        <v>41.21272402809631</v>
       </c>
       <c r="J30" t="n">
         <v>113.0908647502194</v>
       </c>
       <c r="K30" t="n">
-        <v>193.2903007060409</v>
+        <v>193.290300706041</v>
       </c>
       <c r="L30" t="n">
-        <v>259.9026628039371</v>
+        <v>259.9026628039373</v>
       </c>
       <c r="M30" t="n">
-        <v>303.2941486755569</v>
+        <v>303.2941486755571</v>
       </c>
       <c r="N30" t="n">
-        <v>311.3214423110932</v>
+        <v>311.3214423110933</v>
       </c>
       <c r="O30" t="n">
-        <v>284.7982981340304</v>
+        <v>284.7982981340306</v>
       </c>
       <c r="P30" t="n">
-        <v>228.5757425140453</v>
+        <v>228.5757425140455</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.7968305877343</v>
+        <v>152.7968305877344</v>
       </c>
       <c r="R30" t="n">
-        <v>74.31940399257722</v>
+        <v>74.31940399257726</v>
       </c>
       <c r="S30" t="n">
-        <v>22.23387086101753</v>
+        <v>22.23387086101755</v>
       </c>
       <c r="T30" t="n">
-        <v>4.824776226983499</v>
+        <v>4.824776226983502</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07875042807916489</v>
+        <v>0.07875042807916495</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.003530045249248</v>
+        <v>1.003530045249249</v>
       </c>
       <c r="H31" t="n">
-        <v>8.92229440230696</v>
+        <v>8.922294402306965</v>
       </c>
       <c r="I31" t="n">
-        <v>30.17888536076831</v>
+        <v>30.17888536076833</v>
       </c>
       <c r="J31" t="n">
-        <v>70.94957419912186</v>
+        <v>70.9495741991219</v>
       </c>
       <c r="K31" t="n">
-        <v>116.5919452571399</v>
+        <v>116.59194525714</v>
       </c>
       <c r="L31" t="n">
-        <v>149.1975487273292</v>
+        <v>149.1975487273293</v>
       </c>
       <c r="M31" t="n">
-        <v>157.3078960930253</v>
+        <v>157.3078960930254</v>
       </c>
       <c r="N31" t="n">
-        <v>153.5674659243692</v>
+        <v>153.5674659243693</v>
       </c>
       <c r="O31" t="n">
-        <v>141.8444103957756</v>
+        <v>141.8444103957757</v>
       </c>
       <c r="P31" t="n">
-        <v>121.3723974726908</v>
+        <v>121.3723974726909</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.03195678900752</v>
+        <v>84.03195678900757</v>
       </c>
       <c r="R31" t="n">
-        <v>45.12236003457073</v>
+        <v>45.12236003457076</v>
       </c>
       <c r="S31" t="n">
-        <v>17.48879178857099</v>
+        <v>17.488791788571</v>
       </c>
       <c r="T31" t="n">
-        <v>4.287810193337696</v>
+        <v>4.287810193337699</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05473800246814088</v>
+        <v>0.05473800246814092</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.237198090825185</v>
+        <v>2.237198090825186</v>
       </c>
       <c r="H32" t="n">
-        <v>22.91170494766342</v>
+        <v>22.91170494766344</v>
       </c>
       <c r="I32" t="n">
-        <v>86.24957939653801</v>
+        <v>86.24957939653805</v>
       </c>
       <c r="J32" t="n">
-        <v>189.8793914611742</v>
+        <v>189.8793914611743</v>
       </c>
       <c r="K32" t="n">
-        <v>284.5799866458043</v>
+        <v>284.5799866458045</v>
       </c>
       <c r="L32" t="n">
-        <v>353.0466377178956</v>
+        <v>353.0466377178958</v>
       </c>
       <c r="M32" t="n">
-        <v>392.832409265608</v>
+        <v>392.8324092656082</v>
       </c>
       <c r="N32" t="n">
-        <v>399.1888483411651</v>
+        <v>399.1888483411653</v>
       </c>
       <c r="O32" t="n">
-        <v>376.9427098255221</v>
+        <v>376.9427098255223</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7118819582753</v>
+        <v>321.7118819582755</v>
       </c>
       <c r="Q32" t="n">
-        <v>241.5922253305983</v>
+        <v>241.5922253305984</v>
       </c>
       <c r="R32" t="n">
-        <v>140.5323945727976</v>
+        <v>140.5323945727977</v>
       </c>
       <c r="S32" t="n">
-        <v>50.98015149467894</v>
+        <v>50.98015149467897</v>
       </c>
       <c r="T32" t="n">
-        <v>9.793334642587249</v>
+        <v>9.793334642587256</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1789758472660147</v>
+        <v>0.1789758472660148</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.197006506803306</v>
+        <v>1.197006506803307</v>
       </c>
       <c r="H33" t="n">
-        <v>11.5605628420214</v>
+        <v>11.56056284202141</v>
       </c>
       <c r="I33" t="n">
-        <v>41.21272402809628</v>
+        <v>41.21272402809631</v>
       </c>
       <c r="J33" t="n">
         <v>113.0908647502194</v>
       </c>
       <c r="K33" t="n">
-        <v>193.2903007060409</v>
+        <v>193.290300706041</v>
       </c>
       <c r="L33" t="n">
-        <v>259.9026628039371</v>
+        <v>259.9026628039373</v>
       </c>
       <c r="M33" t="n">
-        <v>303.2941486755569</v>
+        <v>303.2941486755571</v>
       </c>
       <c r="N33" t="n">
-        <v>311.3214423110932</v>
+        <v>311.3214423110933</v>
       </c>
       <c r="O33" t="n">
-        <v>284.7982981340304</v>
+        <v>284.7982981340306</v>
       </c>
       <c r="P33" t="n">
-        <v>228.5757425140453</v>
+        <v>228.5757425140455</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.7968305877343</v>
+        <v>152.7968305877344</v>
       </c>
       <c r="R33" t="n">
-        <v>74.31940399257722</v>
+        <v>74.31940399257726</v>
       </c>
       <c r="S33" t="n">
-        <v>22.23387086101753</v>
+        <v>22.23387086101755</v>
       </c>
       <c r="T33" t="n">
-        <v>4.824776226983499</v>
+        <v>4.824776226983502</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07875042807916489</v>
+        <v>0.07875042807916495</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.003530045249248</v>
+        <v>1.003530045249249</v>
       </c>
       <c r="H34" t="n">
-        <v>8.92229440230696</v>
+        <v>8.922294402306965</v>
       </c>
       <c r="I34" t="n">
-        <v>30.17888536076831</v>
+        <v>30.17888536076833</v>
       </c>
       <c r="J34" t="n">
-        <v>70.94957419912186</v>
+        <v>70.9495741991219</v>
       </c>
       <c r="K34" t="n">
-        <v>116.5919452571399</v>
+        <v>116.59194525714</v>
       </c>
       <c r="L34" t="n">
-        <v>149.1975487273292</v>
+        <v>149.1975487273293</v>
       </c>
       <c r="M34" t="n">
-        <v>157.3078960930253</v>
+        <v>157.3078960930254</v>
       </c>
       <c r="N34" t="n">
-        <v>153.5674659243692</v>
+        <v>153.5674659243693</v>
       </c>
       <c r="O34" t="n">
-        <v>141.8444103957756</v>
+        <v>141.8444103957757</v>
       </c>
       <c r="P34" t="n">
-        <v>121.3723974726908</v>
+        <v>121.3723974726909</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.03195678900752</v>
+        <v>84.03195678900757</v>
       </c>
       <c r="R34" t="n">
-        <v>45.12236003457073</v>
+        <v>45.12236003457076</v>
       </c>
       <c r="S34" t="n">
-        <v>17.48879178857099</v>
+        <v>17.488791788571</v>
       </c>
       <c r="T34" t="n">
-        <v>4.287810193337696</v>
+        <v>4.287810193337699</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05473800246814088</v>
+        <v>0.05473800246814092</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.237198090825185</v>
+        <v>2.237198090825186</v>
       </c>
       <c r="H35" t="n">
-        <v>22.91170494766342</v>
+        <v>22.91170494766344</v>
       </c>
       <c r="I35" t="n">
-        <v>86.24957939653801</v>
+        <v>86.24957939653805</v>
       </c>
       <c r="J35" t="n">
-        <v>189.8793914611742</v>
+        <v>189.8793914611743</v>
       </c>
       <c r="K35" t="n">
-        <v>284.5799866458043</v>
+        <v>284.5799866458045</v>
       </c>
       <c r="L35" t="n">
-        <v>353.0466377178956</v>
+        <v>353.0466377178958</v>
       </c>
       <c r="M35" t="n">
-        <v>392.832409265608</v>
+        <v>392.8324092656082</v>
       </c>
       <c r="N35" t="n">
-        <v>399.1888483411651</v>
+        <v>399.1888483411653</v>
       </c>
       <c r="O35" t="n">
-        <v>376.9427098255221</v>
+        <v>376.9427098255223</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7118819582753</v>
+        <v>321.7118819582755</v>
       </c>
       <c r="Q35" t="n">
-        <v>241.5922253305983</v>
+        <v>241.5922253305984</v>
       </c>
       <c r="R35" t="n">
-        <v>140.5323945727976</v>
+        <v>140.5323945727977</v>
       </c>
       <c r="S35" t="n">
-        <v>50.98015149467894</v>
+        <v>50.98015149467897</v>
       </c>
       <c r="T35" t="n">
-        <v>9.793334642587249</v>
+        <v>9.793334642587256</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1789758472660147</v>
+        <v>0.1789758472660148</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.197006506803306</v>
+        <v>1.197006506803307</v>
       </c>
       <c r="H36" t="n">
-        <v>11.5605628420214</v>
+        <v>11.56056284202141</v>
       </c>
       <c r="I36" t="n">
-        <v>41.21272402809628</v>
+        <v>41.21272402809631</v>
       </c>
       <c r="J36" t="n">
         <v>113.0908647502194</v>
       </c>
       <c r="K36" t="n">
-        <v>193.2903007060409</v>
+        <v>193.290300706041</v>
       </c>
       <c r="L36" t="n">
-        <v>259.9026628039371</v>
+        <v>259.9026628039373</v>
       </c>
       <c r="M36" t="n">
-        <v>303.2941486755569</v>
+        <v>303.2941486755571</v>
       </c>
       <c r="N36" t="n">
-        <v>311.3214423110932</v>
+        <v>311.3214423110933</v>
       </c>
       <c r="O36" t="n">
-        <v>284.7982981340304</v>
+        <v>284.7982981340306</v>
       </c>
       <c r="P36" t="n">
-        <v>228.5757425140453</v>
+        <v>228.5757425140455</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.7968305877343</v>
+        <v>152.7968305877344</v>
       </c>
       <c r="R36" t="n">
-        <v>74.31940399257722</v>
+        <v>74.31940399257726</v>
       </c>
       <c r="S36" t="n">
-        <v>22.23387086101753</v>
+        <v>22.23387086101755</v>
       </c>
       <c r="T36" t="n">
-        <v>4.824776226983499</v>
+        <v>4.824776226983502</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07875042807916489</v>
+        <v>0.07875042807916495</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.003530045249248</v>
+        <v>1.003530045249249</v>
       </c>
       <c r="H37" t="n">
-        <v>8.92229440230696</v>
+        <v>8.922294402306965</v>
       </c>
       <c r="I37" t="n">
-        <v>30.17888536076831</v>
+        <v>30.17888536076833</v>
       </c>
       <c r="J37" t="n">
-        <v>70.94957419912186</v>
+        <v>70.9495741991219</v>
       </c>
       <c r="K37" t="n">
-        <v>116.5919452571399</v>
+        <v>116.59194525714</v>
       </c>
       <c r="L37" t="n">
-        <v>149.1975487273292</v>
+        <v>149.1975487273293</v>
       </c>
       <c r="M37" t="n">
-        <v>157.3078960930253</v>
+        <v>157.3078960930254</v>
       </c>
       <c r="N37" t="n">
-        <v>153.5674659243692</v>
+        <v>153.5674659243693</v>
       </c>
       <c r="O37" t="n">
-        <v>141.8444103957756</v>
+        <v>141.8444103957757</v>
       </c>
       <c r="P37" t="n">
-        <v>121.3723974726908</v>
+        <v>121.3723974726909</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.03195678900752</v>
+        <v>84.03195678900757</v>
       </c>
       <c r="R37" t="n">
-        <v>45.12236003457073</v>
+        <v>45.12236003457076</v>
       </c>
       <c r="S37" t="n">
-        <v>17.48879178857099</v>
+        <v>17.488791788571</v>
       </c>
       <c r="T37" t="n">
-        <v>4.287810193337696</v>
+        <v>4.287810193337699</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05473800246814088</v>
+        <v>0.05473800246814092</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.237198090825185</v>
+        <v>2.237198090825186</v>
       </c>
       <c r="H38" t="n">
-        <v>22.91170494766342</v>
+        <v>22.91170494766344</v>
       </c>
       <c r="I38" t="n">
-        <v>86.24957939653801</v>
+        <v>86.24957939653805</v>
       </c>
       <c r="J38" t="n">
-        <v>189.8793914611742</v>
+        <v>189.8793914611743</v>
       </c>
       <c r="K38" t="n">
-        <v>284.5799866458043</v>
+        <v>284.5799866458045</v>
       </c>
       <c r="L38" t="n">
-        <v>353.0466377178956</v>
+        <v>353.0466377178958</v>
       </c>
       <c r="M38" t="n">
-        <v>392.832409265608</v>
+        <v>392.8324092656082</v>
       </c>
       <c r="N38" t="n">
-        <v>399.1888483411651</v>
+        <v>399.1888483411653</v>
       </c>
       <c r="O38" t="n">
-        <v>376.9427098255221</v>
+        <v>376.9427098255223</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7118819582753</v>
+        <v>321.7118819582755</v>
       </c>
       <c r="Q38" t="n">
-        <v>241.5922253305983</v>
+        <v>241.5922253305984</v>
       </c>
       <c r="R38" t="n">
-        <v>140.5323945727976</v>
+        <v>140.5323945727977</v>
       </c>
       <c r="S38" t="n">
-        <v>50.98015149467894</v>
+        <v>50.98015149467897</v>
       </c>
       <c r="T38" t="n">
-        <v>9.793334642587249</v>
+        <v>9.793334642587256</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1789758472660147</v>
+        <v>0.1789758472660148</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.197006506803306</v>
+        <v>1.197006506803307</v>
       </c>
       <c r="H39" t="n">
-        <v>11.5605628420214</v>
+        <v>11.56056284202141</v>
       </c>
       <c r="I39" t="n">
-        <v>41.21272402809628</v>
+        <v>41.21272402809631</v>
       </c>
       <c r="J39" t="n">
         <v>113.0908647502194</v>
       </c>
       <c r="K39" t="n">
-        <v>193.2903007060409</v>
+        <v>193.290300706041</v>
       </c>
       <c r="L39" t="n">
-        <v>259.9026628039371</v>
+        <v>259.9026628039373</v>
       </c>
       <c r="M39" t="n">
-        <v>303.2941486755569</v>
+        <v>303.2941486755571</v>
       </c>
       <c r="N39" t="n">
-        <v>311.3214423110932</v>
+        <v>311.3214423110933</v>
       </c>
       <c r="O39" t="n">
-        <v>284.7982981340304</v>
+        <v>284.7982981340306</v>
       </c>
       <c r="P39" t="n">
-        <v>228.5757425140453</v>
+        <v>228.5757425140455</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.7968305877343</v>
+        <v>152.7968305877344</v>
       </c>
       <c r="R39" t="n">
-        <v>74.31940399257722</v>
+        <v>74.31940399257726</v>
       </c>
       <c r="S39" t="n">
-        <v>22.23387086101753</v>
+        <v>22.23387086101755</v>
       </c>
       <c r="T39" t="n">
-        <v>4.824776226983499</v>
+        <v>4.824776226983502</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07875042807916489</v>
+        <v>0.07875042807916495</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.003530045249248</v>
+        <v>1.003530045249249</v>
       </c>
       <c r="H40" t="n">
-        <v>8.92229440230696</v>
+        <v>8.922294402306965</v>
       </c>
       <c r="I40" t="n">
-        <v>30.17888536076831</v>
+        <v>30.17888536076833</v>
       </c>
       <c r="J40" t="n">
-        <v>70.94957419912186</v>
+        <v>70.9495741991219</v>
       </c>
       <c r="K40" t="n">
-        <v>116.5919452571399</v>
+        <v>116.59194525714</v>
       </c>
       <c r="L40" t="n">
-        <v>149.1975487273292</v>
+        <v>149.1975487273293</v>
       </c>
       <c r="M40" t="n">
-        <v>157.3078960930253</v>
+        <v>157.3078960930254</v>
       </c>
       <c r="N40" t="n">
-        <v>153.5674659243692</v>
+        <v>153.5674659243693</v>
       </c>
       <c r="O40" t="n">
-        <v>141.8444103957756</v>
+        <v>141.8444103957757</v>
       </c>
       <c r="P40" t="n">
-        <v>121.3723974726908</v>
+        <v>121.3723974726909</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.03195678900752</v>
+        <v>84.03195678900757</v>
       </c>
       <c r="R40" t="n">
-        <v>45.12236003457073</v>
+        <v>45.12236003457076</v>
       </c>
       <c r="S40" t="n">
-        <v>17.48879178857099</v>
+        <v>17.488791788571</v>
       </c>
       <c r="T40" t="n">
-        <v>4.287810193337696</v>
+        <v>4.287810193337699</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05473800246814088</v>
+        <v>0.05473800246814092</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.237198090825185</v>
+        <v>2.237198090825186</v>
       </c>
       <c r="H41" t="n">
-        <v>22.91170494766342</v>
+        <v>22.91170494766344</v>
       </c>
       <c r="I41" t="n">
-        <v>86.24957939653801</v>
+        <v>86.24957939653805</v>
       </c>
       <c r="J41" t="n">
-        <v>189.8793914611742</v>
+        <v>189.8793914611743</v>
       </c>
       <c r="K41" t="n">
-        <v>284.5799866458043</v>
+        <v>284.5799866458045</v>
       </c>
       <c r="L41" t="n">
-        <v>353.0466377178956</v>
+        <v>353.0466377178958</v>
       </c>
       <c r="M41" t="n">
-        <v>392.832409265608</v>
+        <v>392.8324092656082</v>
       </c>
       <c r="N41" t="n">
-        <v>399.1888483411651</v>
+        <v>399.1888483411653</v>
       </c>
       <c r="O41" t="n">
-        <v>376.9427098255221</v>
+        <v>376.9427098255223</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7118819582753</v>
+        <v>321.7118819582755</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.5922253305983</v>
+        <v>241.5922253305984</v>
       </c>
       <c r="R41" t="n">
-        <v>140.5323945727976</v>
+        <v>140.5323945727977</v>
       </c>
       <c r="S41" t="n">
-        <v>50.98015149467894</v>
+        <v>50.98015149467897</v>
       </c>
       <c r="T41" t="n">
-        <v>9.793334642587249</v>
+        <v>9.793334642587256</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1789758472660147</v>
+        <v>0.1789758472660148</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.197006506803306</v>
+        <v>1.197006506803307</v>
       </c>
       <c r="H42" t="n">
-        <v>11.5605628420214</v>
+        <v>11.56056284202141</v>
       </c>
       <c r="I42" t="n">
-        <v>41.21272402809628</v>
+        <v>41.21272402809631</v>
       </c>
       <c r="J42" t="n">
         <v>113.0908647502194</v>
       </c>
       <c r="K42" t="n">
-        <v>193.2903007060409</v>
+        <v>193.290300706041</v>
       </c>
       <c r="L42" t="n">
-        <v>259.9026628039371</v>
+        <v>259.9026628039373</v>
       </c>
       <c r="M42" t="n">
-        <v>303.2941486755569</v>
+        <v>303.2941486755571</v>
       </c>
       <c r="N42" t="n">
-        <v>311.3214423110932</v>
+        <v>311.3214423110933</v>
       </c>
       <c r="O42" t="n">
-        <v>284.7982981340304</v>
+        <v>284.7982981340306</v>
       </c>
       <c r="P42" t="n">
-        <v>228.5757425140453</v>
+        <v>228.5757425140455</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7968305877343</v>
+        <v>152.7968305877344</v>
       </c>
       <c r="R42" t="n">
-        <v>74.31940399257722</v>
+        <v>74.31940399257726</v>
       </c>
       <c r="S42" t="n">
-        <v>22.23387086101753</v>
+        <v>22.23387086101755</v>
       </c>
       <c r="T42" t="n">
-        <v>4.824776226983499</v>
+        <v>4.824776226983502</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07875042807916489</v>
+        <v>0.07875042807916495</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.003530045249248</v>
+        <v>1.003530045249249</v>
       </c>
       <c r="H43" t="n">
-        <v>8.92229440230696</v>
+        <v>8.922294402306965</v>
       </c>
       <c r="I43" t="n">
-        <v>30.17888536076831</v>
+        <v>30.17888536076833</v>
       </c>
       <c r="J43" t="n">
-        <v>70.94957419912186</v>
+        <v>70.9495741991219</v>
       </c>
       <c r="K43" t="n">
-        <v>116.5919452571399</v>
+        <v>116.59194525714</v>
       </c>
       <c r="L43" t="n">
-        <v>149.1975487273292</v>
+        <v>149.1975487273293</v>
       </c>
       <c r="M43" t="n">
-        <v>157.3078960930253</v>
+        <v>157.3078960930254</v>
       </c>
       <c r="N43" t="n">
-        <v>153.5674659243692</v>
+        <v>153.5674659243693</v>
       </c>
       <c r="O43" t="n">
-        <v>141.8444103957756</v>
+        <v>141.8444103957757</v>
       </c>
       <c r="P43" t="n">
-        <v>121.3723974726908</v>
+        <v>121.3723974726909</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.03195678900752</v>
+        <v>84.03195678900757</v>
       </c>
       <c r="R43" t="n">
-        <v>45.12236003457073</v>
+        <v>45.12236003457076</v>
       </c>
       <c r="S43" t="n">
-        <v>17.48879178857099</v>
+        <v>17.488791788571</v>
       </c>
       <c r="T43" t="n">
-        <v>4.287810193337696</v>
+        <v>4.287810193337699</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05473800246814088</v>
+        <v>0.05473800246814092</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.237198090825185</v>
+        <v>2.237198090825186</v>
       </c>
       <c r="H44" t="n">
-        <v>22.91170494766342</v>
+        <v>22.91170494766344</v>
       </c>
       <c r="I44" t="n">
-        <v>86.24957939653801</v>
+        <v>86.24957939653827</v>
       </c>
       <c r="J44" t="n">
-        <v>189.8793914611742</v>
+        <v>189.8793914611743</v>
       </c>
       <c r="K44" t="n">
-        <v>284.5799866458042</v>
+        <v>284.5799866458045</v>
       </c>
       <c r="L44" t="n">
-        <v>353.0466377178956</v>
+        <v>353.0466377178958</v>
       </c>
       <c r="M44" t="n">
-        <v>392.832409265608</v>
+        <v>392.8324092656082</v>
       </c>
       <c r="N44" t="n">
-        <v>399.1888483411651</v>
+        <v>399.1888483411653</v>
       </c>
       <c r="O44" t="n">
-        <v>376.9427098255221</v>
+        <v>376.9427098255223</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7118819582753</v>
+        <v>321.7118819582755</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.5922253305983</v>
+        <v>241.5922253305984</v>
       </c>
       <c r="R44" t="n">
-        <v>140.5323945727976</v>
+        <v>140.5323945727977</v>
       </c>
       <c r="S44" t="n">
-        <v>50.98015149467894</v>
+        <v>50.98015149467897</v>
       </c>
       <c r="T44" t="n">
-        <v>9.793334642587249</v>
+        <v>9.793334642587256</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1789758472660147</v>
+        <v>0.1789758472660148</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.197006506803306</v>
+        <v>1.197006506803307</v>
       </c>
       <c r="H45" t="n">
-        <v>11.5605628420214</v>
+        <v>11.56056284202141</v>
       </c>
       <c r="I45" t="n">
-        <v>41.21272402809628</v>
+        <v>41.21272402809631</v>
       </c>
       <c r="J45" t="n">
         <v>113.0908647502194</v>
       </c>
       <c r="K45" t="n">
-        <v>193.2903007060409</v>
+        <v>193.290300706041</v>
       </c>
       <c r="L45" t="n">
-        <v>259.9026628039371</v>
+        <v>259.9026628039373</v>
       </c>
       <c r="M45" t="n">
-        <v>303.2941486755569</v>
+        <v>303.2941486755571</v>
       </c>
       <c r="N45" t="n">
-        <v>311.3214423110932</v>
+        <v>311.3214423110933</v>
       </c>
       <c r="O45" t="n">
-        <v>284.7982981340304</v>
+        <v>284.7982981340306</v>
       </c>
       <c r="P45" t="n">
-        <v>228.5757425140453</v>
+        <v>228.5757425140455</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.7968305877343</v>
+        <v>152.7968305877344</v>
       </c>
       <c r="R45" t="n">
-        <v>74.31940399257722</v>
+        <v>74.31940399257726</v>
       </c>
       <c r="S45" t="n">
-        <v>22.23387086101753</v>
+        <v>22.23387086101755</v>
       </c>
       <c r="T45" t="n">
-        <v>4.824776226983499</v>
+        <v>4.824776226983502</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07875042807916489</v>
+        <v>0.07875042807916495</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.003530045249248</v>
+        <v>1.003530045249249</v>
       </c>
       <c r="H46" t="n">
-        <v>8.92229440230696</v>
+        <v>8.922294402306965</v>
       </c>
       <c r="I46" t="n">
-        <v>30.17888536076831</v>
+        <v>30.17888536076833</v>
       </c>
       <c r="J46" t="n">
-        <v>70.94957419912186</v>
+        <v>70.9495741991219</v>
       </c>
       <c r="K46" t="n">
-        <v>116.5919452571399</v>
+        <v>116.59194525714</v>
       </c>
       <c r="L46" t="n">
-        <v>149.1975487273292</v>
+        <v>149.1975487273293</v>
       </c>
       <c r="M46" t="n">
-        <v>157.3078960930253</v>
+        <v>157.3078960930254</v>
       </c>
       <c r="N46" t="n">
-        <v>153.5674659243692</v>
+        <v>153.5674659243693</v>
       </c>
       <c r="O46" t="n">
-        <v>141.8444103957756</v>
+        <v>141.8444103957757</v>
       </c>
       <c r="P46" t="n">
-        <v>121.3723974726908</v>
+        <v>121.3723974726909</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.03195678900752</v>
+        <v>84.03195678900757</v>
       </c>
       <c r="R46" t="n">
-        <v>45.12236003457073</v>
+        <v>45.12236003457076</v>
       </c>
       <c r="S46" t="n">
-        <v>17.48879178857099</v>
+        <v>17.488791788571</v>
       </c>
       <c r="T46" t="n">
-        <v>4.287810193337696</v>
+        <v>4.287810193337699</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05473800246814088</v>
+        <v>0.05473800246814092</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J11" t="n">
         <v>117.3812187638195</v>
@@ -35421,7 +35421,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N11" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
         <v>254.034210637874</v>
@@ -35433,7 +35433,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R11" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J12" t="n">
         <v>361.8756844398183</v>
@@ -35494,10 +35494,10 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M12" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N12" t="n">
         <v>219.3484664972891</v>
@@ -35506,13 +35506,13 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P12" t="n">
-        <v>154.9475907538916</v>
+        <v>225.3229807893094</v>
       </c>
       <c r="Q12" t="n">
-        <v>295.9748992311996</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R12" t="n">
-        <v>33.78553351613295</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K13" t="n">
-        <v>318.9563201597417</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>144.3886676590582</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M13" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="N13" t="n">
-        <v>97.97849100196763</v>
+        <v>380.5483616164781</v>
       </c>
       <c r="O13" t="n">
-        <v>87.16477557810539</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P13" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.2504645920424</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35658,7 +35658,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
         <v>254.034210637874</v>
@@ -35670,7 +35670,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N15" t="n">
         <v>219.3484664972891</v>
@@ -35743,10 +35743,10 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.7599435450197</v>
+        <v>165.7599435450203</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.21638531055223</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325472</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>219.9348809797784</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M16" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N16" t="n">
-        <v>453.4520759799035</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P16" t="n">
-        <v>71.45566478902612</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.34794198810393</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P17" t="n">
         <v>211.1492784199623</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
-        <v>197.4144057639442</v>
+        <v>197.4144057639431</v>
       </c>
       <c r="L18" t="n">
         <v>178.4230816471201</v>
@@ -35977,13 +35977,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960186</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36044,22 +36044,22 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M19" t="n">
-        <v>453.4520759799035</v>
+        <v>104.8304408359788</v>
       </c>
       <c r="N19" t="n">
-        <v>348.3455053169123</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P19" t="n">
-        <v>71.45566478902609</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q19" t="n">
         <v>193.2504645920423</v>
@@ -36126,16 +36126,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N20" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P20" t="n">
         <v>211.1492784199623</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J21" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>303.9351131224337</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
         <v>178.4230816471201</v>
@@ -36214,16 +36214,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960186</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R21" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
         <v>318.9563201597416</v>
@@ -36287,19 +36287,19 @@
         <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>99.04378543193859</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N22" t="n">
-        <v>97.97849100196758</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O22" t="n">
-        <v>364.1209851043361</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P22" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.3479419881039</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>51.70167685257451</v>
+        <v>51.70167685257455</v>
       </c>
       <c r="J23" t="n">
-        <v>160.4594319755876</v>
+        <v>160.4594319755878</v>
       </c>
       <c r="K23" t="n">
-        <v>248.815385850995</v>
+        <v>248.8153858509951</v>
       </c>
       <c r="L23" t="n">
-        <v>314.7345952852726</v>
+        <v>314.7345952852729</v>
       </c>
       <c r="M23" t="n">
-        <v>355.4011463661761</v>
+        <v>355.4011463661764</v>
       </c>
       <c r="N23" t="n">
-        <v>361.9092255067191</v>
+        <v>361.9092255067193</v>
       </c>
       <c r="O23" t="n">
-        <v>339.551750469498</v>
+        <v>339.5517504694982</v>
       </c>
       <c r="P23" t="n">
-        <v>284.136520148044</v>
+        <v>284.1365201480442</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.4675507260002</v>
+        <v>205.4675507260004</v>
       </c>
       <c r="R23" t="n">
         <v>105.4997446780012</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>48.73458560578501</v>
+        <v>48.73458560578504</v>
       </c>
       <c r="J24" t="n">
-        <v>92.47975041688603</v>
+        <v>92.47975041688611</v>
       </c>
       <c r="K24" t="n">
-        <v>170.8910668727075</v>
+        <v>170.8910668727077</v>
       </c>
       <c r="L24" t="n">
-        <v>237.3875760897076</v>
+        <v>237.3875760897077</v>
       </c>
       <c r="M24" t="n">
-        <v>280.1973681632289</v>
+        <v>280.1973681632291</v>
       </c>
       <c r="N24" t="n">
-        <v>289.9784140975515</v>
+        <v>289.9784140975516</v>
       </c>
       <c r="O24" t="n">
-        <v>261.6264084118082</v>
+        <v>261.6264084118084</v>
       </c>
       <c r="P24" t="n">
-        <v>206.8049013092167</v>
+        <v>206.8049013092168</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.0497922987558</v>
+        <v>130.0497922987559</v>
       </c>
       <c r="R24" t="n">
-        <v>68.10234304983013</v>
+        <v>68.1023430498292</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>129.0216229103926</v>
+        <v>50.31281821522003</v>
       </c>
       <c r="K25" t="n">
-        <v>95.62729080442791</v>
+        <v>95.62729080442799</v>
       </c>
       <c r="L25" t="n">
-        <v>127.278788831628</v>
+        <v>507.4695904388654</v>
       </c>
       <c r="M25" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N25" t="n">
-        <v>534.8720223648094</v>
+        <v>534.8720223648095</v>
       </c>
       <c r="O25" t="n">
-        <v>500.8627221935161</v>
+        <v>500.8627221935162</v>
       </c>
       <c r="P25" t="n">
-        <v>275.2546013962912</v>
+        <v>126.6751270881659</v>
       </c>
       <c r="Q25" t="n">
-        <v>212.314916628161</v>
+        <v>59.41239402422262</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>51.70167685257451</v>
+        <v>51.70167685257455</v>
       </c>
       <c r="J26" t="n">
-        <v>160.4594319755876</v>
+        <v>160.4594319755875</v>
       </c>
       <c r="K26" t="n">
-        <v>248.815385850995</v>
+        <v>248.8153858509951</v>
       </c>
       <c r="L26" t="n">
-        <v>314.7345952852726</v>
+        <v>314.7345952852729</v>
       </c>
       <c r="M26" t="n">
-        <v>355.4011463661761</v>
+        <v>355.4011463661764</v>
       </c>
       <c r="N26" t="n">
-        <v>361.9092255067191</v>
+        <v>361.9092255067193</v>
       </c>
       <c r="O26" t="n">
-        <v>339.551750469498</v>
+        <v>339.5517504694982</v>
       </c>
       <c r="P26" t="n">
-        <v>284.136520148044</v>
+        <v>284.1365201480442</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.4675507260002</v>
+        <v>205.4675507260004</v>
       </c>
       <c r="R26" t="n">
         <v>105.4997446780012</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>48.73458560578501</v>
+        <v>25.04033727809631</v>
       </c>
       <c r="J27" t="n">
-        <v>92.47975041688603</v>
+        <v>92.47975041688611</v>
       </c>
       <c r="K27" t="n">
-        <v>170.8910668727075</v>
+        <v>170.8910668727077</v>
       </c>
       <c r="L27" t="n">
-        <v>237.3875760897076</v>
+        <v>237.3875760897077</v>
       </c>
       <c r="M27" t="n">
-        <v>280.1973681632289</v>
+        <v>280.1973681632291</v>
       </c>
       <c r="N27" t="n">
-        <v>289.9784140975515</v>
+        <v>289.9784140975516</v>
       </c>
       <c r="O27" t="n">
-        <v>261.6264084118082</v>
+        <v>261.6264084118084</v>
       </c>
       <c r="P27" t="n">
-        <v>206.8049013092167</v>
+        <v>206.8049013092168</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.0497922987558</v>
+        <v>130.0497922987559</v>
       </c>
       <c r="R27" t="n">
-        <v>68.10234304983058</v>
+        <v>91.79659137751771</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>129.0216229103926</v>
+        <v>50.31281821522003</v>
       </c>
       <c r="K28" t="n">
-        <v>345.4077040509148</v>
+        <v>345.4077040509149</v>
       </c>
       <c r="L28" t="n">
-        <v>206.6639027706664</v>
+        <v>127.278788831628</v>
       </c>
       <c r="M28" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N28" t="n">
-        <v>534.8720223648094</v>
+        <v>534.8720223648095</v>
       </c>
       <c r="O28" t="n">
-        <v>500.8627221935161</v>
+        <v>500.8627221935162</v>
       </c>
       <c r="P28" t="n">
-        <v>98.99159681470437</v>
+        <v>257.0855154489165</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.41239402422258</v>
+        <v>59.41239402422262</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>51.70167685257451</v>
+        <v>51.70167685257455</v>
       </c>
       <c r="J29" t="n">
-        <v>160.4594319755876</v>
+        <v>160.4594319755878</v>
       </c>
       <c r="K29" t="n">
-        <v>248.815385850995</v>
+        <v>248.8153858509951</v>
       </c>
       <c r="L29" t="n">
-        <v>314.7345952852726</v>
+        <v>314.7345952852729</v>
       </c>
       <c r="M29" t="n">
-        <v>355.4011463661761</v>
+        <v>355.4011463661764</v>
       </c>
       <c r="N29" t="n">
-        <v>361.9092255067191</v>
+        <v>361.9092255067193</v>
       </c>
       <c r="O29" t="n">
-        <v>339.551750469498</v>
+        <v>339.5517504694982</v>
       </c>
       <c r="P29" t="n">
-        <v>284.136520148044</v>
+        <v>284.1365201480442</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.4675507260002</v>
+        <v>205.4675507260004</v>
       </c>
       <c r="R29" t="n">
         <v>105.4997446780012</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>48.73458560578501</v>
+        <v>48.73458560578504</v>
       </c>
       <c r="J30" t="n">
-        <v>92.47975041688603</v>
+        <v>92.47975041688611</v>
       </c>
       <c r="K30" t="n">
-        <v>170.8910668727075</v>
+        <v>188.3469253241036</v>
       </c>
       <c r="L30" t="n">
-        <v>237.3875760897076</v>
+        <v>237.3875760897077</v>
       </c>
       <c r="M30" t="n">
-        <v>280.1973681632289</v>
+        <v>280.1973681632291</v>
       </c>
       <c r="N30" t="n">
-        <v>289.9784140975515</v>
+        <v>289.9784140975516</v>
       </c>
       <c r="O30" t="n">
-        <v>261.6264084118082</v>
+        <v>261.6264084118084</v>
       </c>
       <c r="P30" t="n">
-        <v>206.8049013092167</v>
+        <v>206.8049013092168</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.0497922987558</v>
+        <v>130.0497922987559</v>
       </c>
       <c r="R30" t="n">
-        <v>68.10234304983058</v>
+        <v>50.64648459843312</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>50.31281821521999</v>
+        <v>50.31281821522003</v>
       </c>
       <c r="K31" t="n">
-        <v>95.62729080442791</v>
+        <v>345.4077040509149</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4695904388653</v>
+        <v>507.4695904388654</v>
       </c>
       <c r="M31" t="n">
-        <v>552.4450627296424</v>
+        <v>134.7324562015396</v>
       </c>
       <c r="N31" t="n">
-        <v>534.8720223648094</v>
+        <v>534.8720223648095</v>
       </c>
       <c r="O31" t="n">
-        <v>500.8627221935161</v>
+        <v>500.8627221935162</v>
       </c>
       <c r="P31" t="n">
-        <v>126.6751270881645</v>
+        <v>294.607320369782</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.41239402422258</v>
+        <v>59.41239402422262</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>51.70167685257451</v>
+        <v>51.70167685257455</v>
       </c>
       <c r="J32" t="n">
-        <v>160.4594319755876</v>
+        <v>160.4594319755878</v>
       </c>
       <c r="K32" t="n">
-        <v>248.815385850995</v>
+        <v>248.8153858509951</v>
       </c>
       <c r="L32" t="n">
-        <v>314.7345952852726</v>
+        <v>314.7345952852729</v>
       </c>
       <c r="M32" t="n">
-        <v>355.4011463661761</v>
+        <v>355.4011463661764</v>
       </c>
       <c r="N32" t="n">
-        <v>361.9092255067191</v>
+        <v>361.9092255067193</v>
       </c>
       <c r="O32" t="n">
-        <v>339.551750469498</v>
+        <v>339.5517504694982</v>
       </c>
       <c r="P32" t="n">
-        <v>284.136520148044</v>
+        <v>284.1365201480442</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.4675507260002</v>
+        <v>205.4675507260004</v>
       </c>
       <c r="R32" t="n">
         <v>105.4997446780012</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>48.73458560578501</v>
+        <v>25.04033727809631</v>
       </c>
       <c r="J33" t="n">
-        <v>92.47975041688603</v>
+        <v>133.6298571959708</v>
       </c>
       <c r="K33" t="n">
-        <v>170.8910668727075</v>
+        <v>170.8910668727077</v>
       </c>
       <c r="L33" t="n">
-        <v>237.3875760897076</v>
+        <v>237.3875760897077</v>
       </c>
       <c r="M33" t="n">
-        <v>280.1973681632289</v>
+        <v>280.1973681632291</v>
       </c>
       <c r="N33" t="n">
-        <v>289.9784140975515</v>
+        <v>289.9784140975516</v>
       </c>
       <c r="O33" t="n">
-        <v>261.6264084118082</v>
+        <v>261.6264084118084</v>
       </c>
       <c r="P33" t="n">
-        <v>206.8049013092167</v>
+        <v>206.8049013092168</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.0497922987558</v>
+        <v>130.0497922987559</v>
       </c>
       <c r="R33" t="n">
-        <v>68.10234304983058</v>
+        <v>50.64648459843312</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>50.31281821521999</v>
+        <v>129.0216229103926</v>
       </c>
       <c r="K34" t="n">
-        <v>345.4077040509148</v>
+        <v>345.4077040509149</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4695904388653</v>
+        <v>435.2788794628941</v>
       </c>
       <c r="M34" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N34" t="n">
-        <v>534.8720223648094</v>
+        <v>534.8720223648095</v>
       </c>
       <c r="O34" t="n">
-        <v>278.7658392204895</v>
+        <v>119.3452228973512</v>
       </c>
       <c r="P34" t="n">
-        <v>98.99159681470437</v>
+        <v>98.99159681470445</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.41239402422258</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>51.70167685257451</v>
+        <v>51.70167685257455</v>
       </c>
       <c r="J35" t="n">
-        <v>160.4594319755876</v>
+        <v>160.4594319755878</v>
       </c>
       <c r="K35" t="n">
-        <v>248.815385850995</v>
+        <v>248.8153858509951</v>
       </c>
       <c r="L35" t="n">
-        <v>314.7345952852726</v>
+        <v>314.7345952852729</v>
       </c>
       <c r="M35" t="n">
-        <v>355.4011463661761</v>
+        <v>355.4011463661764</v>
       </c>
       <c r="N35" t="n">
-        <v>361.9092255067191</v>
+        <v>361.9092255067193</v>
       </c>
       <c r="O35" t="n">
-        <v>339.551750469498</v>
+        <v>339.5517504694982</v>
       </c>
       <c r="P35" t="n">
-        <v>284.136520148044</v>
+        <v>284.1365201480442</v>
       </c>
       <c r="Q35" t="n">
-        <v>205.4675507260002</v>
+        <v>205.4675507260004</v>
       </c>
       <c r="R35" t="n">
         <v>105.4997446780012</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>48.73458560578501</v>
+        <v>25.04033727809631</v>
       </c>
       <c r="J36" t="n">
-        <v>92.47975041688603</v>
+        <v>92.47975041688611</v>
       </c>
       <c r="K36" t="n">
-        <v>170.8910668727075</v>
+        <v>170.8910668727077</v>
       </c>
       <c r="L36" t="n">
-        <v>237.3875760897076</v>
+        <v>237.3875760897077</v>
       </c>
       <c r="M36" t="n">
-        <v>280.1973681632289</v>
+        <v>280.1973681632291</v>
       </c>
       <c r="N36" t="n">
-        <v>289.9784140975515</v>
+        <v>289.9784140975516</v>
       </c>
       <c r="O36" t="n">
-        <v>261.6264084118082</v>
+        <v>261.6264084118084</v>
       </c>
       <c r="P36" t="n">
-        <v>206.8049013092167</v>
+        <v>206.8049013092168</v>
       </c>
       <c r="Q36" t="n">
-        <v>147.5056507501532</v>
+        <v>171.1998990778405</v>
       </c>
       <c r="R36" t="n">
-        <v>50.64648459843308</v>
+        <v>50.64648459843312</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>129.0216229103926</v>
       </c>
       <c r="K37" t="n">
-        <v>95.62729080442791</v>
+        <v>345.4077040509149</v>
       </c>
       <c r="L37" t="n">
-        <v>127.278788831628</v>
+        <v>507.4695904388654</v>
       </c>
       <c r="M37" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N37" t="n">
-        <v>534.8720223648094</v>
+        <v>146.7659532339821</v>
       </c>
       <c r="O37" t="n">
-        <v>500.8627221935161</v>
+        <v>119.3452228973512</v>
       </c>
       <c r="P37" t="n">
-        <v>275.2546013962912</v>
+        <v>414.9069549695606</v>
       </c>
       <c r="Q37" t="n">
         <v>212.314916628161</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>51.70167685257451</v>
+        <v>51.70167685257455</v>
       </c>
       <c r="J38" t="n">
-        <v>160.4594319755876</v>
+        <v>160.4594319755878</v>
       </c>
       <c r="K38" t="n">
-        <v>248.815385850995</v>
+        <v>248.8153858509951</v>
       </c>
       <c r="L38" t="n">
-        <v>314.7345952852726</v>
+        <v>314.7345952852729</v>
       </c>
       <c r="M38" t="n">
-        <v>355.4011463661761</v>
+        <v>355.4011463661764</v>
       </c>
       <c r="N38" t="n">
-        <v>361.9092255067191</v>
+        <v>361.9092255067193</v>
       </c>
       <c r="O38" t="n">
-        <v>339.551750469498</v>
+        <v>339.5517504694982</v>
       </c>
       <c r="P38" t="n">
-        <v>284.136520148044</v>
+        <v>284.1365201480442</v>
       </c>
       <c r="Q38" t="n">
-        <v>205.4675507260002</v>
+        <v>205.4675507260004</v>
       </c>
       <c r="R38" t="n">
         <v>105.4997446780012</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>48.73458560578501</v>
+        <v>48.73458560578504</v>
       </c>
       <c r="J39" t="n">
-        <v>92.47975041688603</v>
+        <v>109.9356088682821</v>
       </c>
       <c r="K39" t="n">
-        <v>170.8910668727075</v>
+        <v>170.8910668727077</v>
       </c>
       <c r="L39" t="n">
-        <v>237.3875760897076</v>
+        <v>237.3875760897077</v>
       </c>
       <c r="M39" t="n">
-        <v>280.1973681632289</v>
+        <v>280.1973681632291</v>
       </c>
       <c r="N39" t="n">
-        <v>289.9784140975515</v>
+        <v>289.9784140975516</v>
       </c>
       <c r="O39" t="n">
-        <v>261.6264084118082</v>
+        <v>261.6264084118084</v>
       </c>
       <c r="P39" t="n">
-        <v>206.8049013092167</v>
+        <v>206.8049013092168</v>
       </c>
       <c r="Q39" t="n">
-        <v>147.5056507501532</v>
+        <v>130.0497922987559</v>
       </c>
       <c r="R39" t="n">
-        <v>50.64648459843308</v>
+        <v>50.64648459843312</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>129.0216229103926</v>
       </c>
       <c r="K40" t="n">
-        <v>345.4077040509148</v>
+        <v>345.4077040509149</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4695904388653</v>
+        <v>507.4695904388654</v>
       </c>
       <c r="M40" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N40" t="n">
-        <v>534.8720223648094</v>
+        <v>132.8185649487689</v>
       </c>
       <c r="O40" t="n">
-        <v>200.057034525317</v>
+        <v>133.2926111825646</v>
       </c>
       <c r="P40" t="n">
-        <v>98.99159681470437</v>
+        <v>414.9069549695606</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.41239402422258</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>51.70167685257451</v>
+        <v>51.70167685257455</v>
       </c>
       <c r="J41" t="n">
-        <v>160.4594319755876</v>
+        <v>160.4594319755878</v>
       </c>
       <c r="K41" t="n">
-        <v>248.815385850995</v>
+        <v>248.8153858509951</v>
       </c>
       <c r="L41" t="n">
-        <v>314.7345952852726</v>
+        <v>314.7345952852729</v>
       </c>
       <c r="M41" t="n">
-        <v>355.4011463661761</v>
+        <v>355.4011463661764</v>
       </c>
       <c r="N41" t="n">
-        <v>361.9092255067191</v>
+        <v>361.9092255067193</v>
       </c>
       <c r="O41" t="n">
-        <v>339.551750469498</v>
+        <v>339.5517504694982</v>
       </c>
       <c r="P41" t="n">
-        <v>284.136520148044</v>
+        <v>284.1365201480442</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.4675507260002</v>
+        <v>205.4675507260004</v>
       </c>
       <c r="R41" t="n">
         <v>105.4997446780012</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.04033727809628</v>
+        <v>48.73458560578504</v>
       </c>
       <c r="J42" t="n">
-        <v>133.6298571959722</v>
+        <v>92.47975041688611</v>
       </c>
       <c r="K42" t="n">
-        <v>170.8910668727075</v>
+        <v>170.8910668727077</v>
       </c>
       <c r="L42" t="n">
-        <v>237.3875760897076</v>
+        <v>237.3875760897077</v>
       </c>
       <c r="M42" t="n">
-        <v>280.1973681632289</v>
+        <v>280.1973681632291</v>
       </c>
       <c r="N42" t="n">
-        <v>289.9784140975515</v>
+        <v>289.9784140975516</v>
       </c>
       <c r="O42" t="n">
-        <v>261.6264084118082</v>
+        <v>261.6264084118084</v>
       </c>
       <c r="P42" t="n">
-        <v>206.8049013092167</v>
+        <v>206.8049013092168</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.0497922987558</v>
+        <v>130.0497922987559</v>
       </c>
       <c r="R42" t="n">
-        <v>50.64648459843308</v>
+        <v>68.1023430498292</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>129.0216229103926</v>
+        <v>50.31281821522003</v>
       </c>
       <c r="K43" t="n">
-        <v>345.4077040509148</v>
+        <v>95.62729080442799</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4695904388653</v>
+        <v>507.4695904388654</v>
       </c>
       <c r="M43" t="n">
-        <v>184.8749517186891</v>
+        <v>264.2132348482481</v>
       </c>
       <c r="N43" t="n">
-        <v>132.8185649487688</v>
+        <v>534.8720223648095</v>
       </c>
       <c r="O43" t="n">
-        <v>500.8627221935161</v>
+        <v>500.8627221935162</v>
       </c>
       <c r="P43" t="n">
         <v>414.9069549695606</v>
       </c>
       <c r="Q43" t="n">
-        <v>212.314916628161</v>
+        <v>59.41239402422262</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>51.70167685257451</v>
+        <v>51.70167685257476</v>
       </c>
       <c r="J44" t="n">
-        <v>160.4594319755876</v>
+        <v>160.4594319755878</v>
       </c>
       <c r="K44" t="n">
-        <v>248.8153858509949</v>
+        <v>248.8153858509951</v>
       </c>
       <c r="L44" t="n">
-        <v>314.7345952852726</v>
+        <v>314.7345952852729</v>
       </c>
       <c r="M44" t="n">
-        <v>355.4011463661761</v>
+        <v>355.4011463661764</v>
       </c>
       <c r="N44" t="n">
-        <v>361.9092255067191</v>
+        <v>361.9092255067193</v>
       </c>
       <c r="O44" t="n">
-        <v>339.551750469498</v>
+        <v>339.5517504694982</v>
       </c>
       <c r="P44" t="n">
-        <v>284.136520148044</v>
+        <v>284.1365201480442</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.4675507260002</v>
+        <v>205.4675507260004</v>
       </c>
       <c r="R44" t="n">
         <v>105.4997446780012</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.04033727809628</v>
+        <v>48.73458560578504</v>
       </c>
       <c r="J45" t="n">
-        <v>92.47975041688603</v>
+        <v>109.9356088682821</v>
       </c>
       <c r="K45" t="n">
-        <v>170.8910668727075</v>
+        <v>170.8910668727077</v>
       </c>
       <c r="L45" t="n">
-        <v>237.3875760897076</v>
+        <v>237.3875760897077</v>
       </c>
       <c r="M45" t="n">
-        <v>321.347474942315</v>
+        <v>280.1973681632291</v>
       </c>
       <c r="N45" t="n">
-        <v>289.9784140975515</v>
+        <v>289.9784140975516</v>
       </c>
       <c r="O45" t="n">
-        <v>261.6264084118082</v>
+        <v>261.6264084118084</v>
       </c>
       <c r="P45" t="n">
-        <v>206.8049013092167</v>
+        <v>206.8049013092168</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.0497922987558</v>
+        <v>130.0497922987559</v>
       </c>
       <c r="R45" t="n">
-        <v>50.64648459843308</v>
+        <v>50.64648459843312</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>129.0216229103926</v>
+        <v>50.31281821522003</v>
       </c>
       <c r="K46" t="n">
-        <v>345.4077040509148</v>
+        <v>95.62729080442799</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4695904388653</v>
+        <v>507.4695904388654</v>
       </c>
       <c r="M46" t="n">
-        <v>134.7324562015395</v>
+        <v>552.4450627296424</v>
       </c>
       <c r="N46" t="n">
-        <v>534.8720223648094</v>
+        <v>534.8720223648095</v>
       </c>
       <c r="O46" t="n">
-        <v>148.9517602946252</v>
+        <v>500.8627221935162</v>
       </c>
       <c r="P46" t="n">
-        <v>414.9069549695606</v>
+        <v>126.6751270881663</v>
       </c>
       <c r="Q46" t="n">
-        <v>212.314916628161</v>
+        <v>59.41239402422262</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
